--- a/Tool/ExporterSheet.xlsx
+++ b/Tool/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6032" uniqueCount="1192">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -3551,6 +3551,42 @@
   </si>
   <si>
     <t>https://bitly.cx/IDk</t>
+  </si>
+  <si>
+    <t>759678332576202762</t>
+  </si>
+  <si>
+    <t>sakitjiwaa</t>
+  </si>
+  <si>
+    <t>https://u.to/LAWqIA</t>
+  </si>
+  <si>
+    <t>360163598879948822</t>
+  </si>
+  <si>
+    <t>ultimatewarfair</t>
+  </si>
+  <si>
+    <t>https://discord.com/invite/nsfwhubs</t>
+  </si>
+  <si>
+    <t>511912577098579973</t>
+  </si>
+  <si>
+    <t>st4cchu</t>
+  </si>
+  <si>
+    <t>https://u.to/Xa2rIA</t>
+  </si>
+  <si>
+    <t>385767292862070794</t>
+  </si>
+  <si>
+    <t>geraldf.</t>
+  </si>
+  <si>
+    <t>https://bitly.cx/5nW6I</t>
   </si>
 </sst>
 </file>
@@ -26584,6 +26620,158 @@
         <v>30</v>
       </c>
       <c r="L599" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1">
+        <v>599.0</v>
+      </c>
+      <c r="B600" s="2">
+        <v>45424.0</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J600" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="B601" s="2">
+        <v>45424.0</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J601" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K601" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1">
+        <v>601.0</v>
+      </c>
+      <c r="B602" s="2">
+        <v>45424.0</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J602" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K602" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L602" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1">
+        <v>602.0</v>
+      </c>
+      <c r="B603" s="2">
+        <v>45424.0</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J603" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L603" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -27186,7 +27374,11 @@
     <hyperlink r:id="rId595" ref="J597"/>
     <hyperlink r:id="rId596" ref="J598"/>
     <hyperlink r:id="rId597" ref="J599"/>
+    <hyperlink r:id="rId598" ref="J600"/>
+    <hyperlink r:id="rId599" ref="J601"/>
+    <hyperlink r:id="rId600" ref="J602"/>
+    <hyperlink r:id="rId601" ref="J603"/>
   </hyperlinks>
-  <drawing r:id="rId598"/>
+  <drawing r:id="rId602"/>
 </worksheet>
 </file>
--- a/Tool/ExporterSheet.xlsx
+++ b/Tool/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6032" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="1216">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -3587,6 +3587,78 @@
   </si>
   <si>
     <t>https://bitly.cx/5nW6I</t>
+  </si>
+  <si>
+    <t>458204051881066506</t>
+  </si>
+  <si>
+    <t>aowha</t>
+  </si>
+  <si>
+    <t>https://u.to/WsmrIA</t>
+  </si>
+  <si>
+    <t>253848829260988416</t>
+  </si>
+  <si>
+    <t>ditesacetine</t>
+  </si>
+  <si>
+    <t>https://bitly.cx/GeAM</t>
+  </si>
+  <si>
+    <t>476115736956502018</t>
+  </si>
+  <si>
+    <t>dejwick</t>
+  </si>
+  <si>
+    <t>https://u.to/ExatIA</t>
+  </si>
+  <si>
+    <t>452421490692980736</t>
+  </si>
+  <si>
+    <t>atakanyavuz.</t>
+  </si>
+  <si>
+    <t>https://bitly.cx/8tr9</t>
+  </si>
+  <si>
+    <t>347860434411323404</t>
+  </si>
+  <si>
+    <t>_victorgg_1</t>
+  </si>
+  <si>
+    <t>1111231962888282113</t>
+  </si>
+  <si>
+    <t>motmikemsuy</t>
+  </si>
+  <si>
+    <t>https://bitly.cx/Ywv</t>
+  </si>
+  <si>
+    <t>888121624631578764</t>
+  </si>
+  <si>
+    <t>cartel_pinkbird</t>
+  </si>
+  <si>
+    <t>988805652031893505</t>
+  </si>
+  <si>
+    <t>nabielanjayyyy</t>
+  </si>
+  <si>
+    <t>https://bitly.cx/EVFV</t>
+  </si>
+  <si>
+    <t>448164619316625409</t>
+  </si>
+  <si>
+    <t>neronomk</t>
   </si>
 </sst>
 </file>
@@ -26772,6 +26844,462 @@
         <v>30</v>
       </c>
       <c r="L603" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1">
+        <v>603.0</v>
+      </c>
+      <c r="B604" s="2">
+        <v>45425.0</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J604" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K604" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L604" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="B605" s="2">
+        <v>45425.0</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J605" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1">
+        <v>605.0</v>
+      </c>
+      <c r="B606" s="2">
+        <v>45426.0</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J606" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1">
+        <v>606.0</v>
+      </c>
+      <c r="B607" s="2">
+        <v>45427.0</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J607" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1">
+        <v>607.0</v>
+      </c>
+      <c r="B608" s="2">
+        <v>45427.0</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J608" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K608" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L608" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1">
+        <v>608.0</v>
+      </c>
+      <c r="B609" s="2">
+        <v>45427.0</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J609" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L609" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1">
+        <v>609.0</v>
+      </c>
+      <c r="B610" s="2">
+        <v>45427.0</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J610" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L610" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1">
+        <v>610.0</v>
+      </c>
+      <c r="B611" s="2">
+        <v>45427.0</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J611" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L611" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1">
+        <v>611.0</v>
+      </c>
+      <c r="B612" s="2">
+        <v>45427.0</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J612" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K612" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L612" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1">
+        <v>612.0</v>
+      </c>
+      <c r="B613" s="2">
+        <v>45427.0</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J613" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K613" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L613" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1">
+        <v>613.0</v>
+      </c>
+      <c r="B614" s="2">
+        <v>45428.0</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J614" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K614" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L614" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1">
+        <v>614.0</v>
+      </c>
+      <c r="B615" s="2">
+        <v>45428.0</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J615" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K615" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L615" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -27378,7 +27906,19 @@
     <hyperlink r:id="rId599" ref="J601"/>
     <hyperlink r:id="rId600" ref="J602"/>
     <hyperlink r:id="rId601" ref="J603"/>
+    <hyperlink r:id="rId602" ref="J604"/>
+    <hyperlink r:id="rId603" ref="J605"/>
+    <hyperlink r:id="rId604" ref="J606"/>
+    <hyperlink r:id="rId605" ref="J607"/>
+    <hyperlink r:id="rId606" ref="J608"/>
+    <hyperlink r:id="rId607" ref="J609"/>
+    <hyperlink r:id="rId608" ref="J610"/>
+    <hyperlink r:id="rId609" ref="J611"/>
+    <hyperlink r:id="rId610" ref="J612"/>
+    <hyperlink r:id="rId611" ref="J613"/>
+    <hyperlink r:id="rId612" ref="J614"/>
+    <hyperlink r:id="rId613" ref="J615"/>
   </hyperlinks>
-  <drawing r:id="rId602"/>
+  <drawing r:id="rId614"/>
 </worksheet>
 </file>
--- a/Tool/ExporterSheet.xlsx
+++ b/Tool/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6182" uniqueCount="1224">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -3659,6 +3659,30 @@
   </si>
   <si>
     <t>neronomk</t>
+  </si>
+  <si>
+    <t>790235586246082560</t>
+  </si>
+  <si>
+    <t>metzelmotte2009</t>
+  </si>
+  <si>
+    <t>274968874569695232</t>
+  </si>
+  <si>
+    <t>justpuff</t>
+  </si>
+  <si>
+    <t>https://goo.su/allow-take</t>
+  </si>
+  <si>
+    <t>389144531544702986</t>
+  </si>
+  <si>
+    <t>sergeantbino</t>
+  </si>
+  <si>
+    <t>https://discord.gg/UmACwksH7G</t>
   </si>
 </sst>
 </file>
@@ -27300,6 +27324,120 @@
         <v>30</v>
       </c>
       <c r="L615" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1">
+        <v>615.0</v>
+      </c>
+      <c r="B616" s="2">
+        <v>45428.0</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J616" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K616" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L616" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1">
+        <v>616.0</v>
+      </c>
+      <c r="B617" s="2">
+        <v>45429.0</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J617" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K617" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L617" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1">
+        <v>617.0</v>
+      </c>
+      <c r="B618" s="2">
+        <v>45429.0</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J618" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K618" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L618" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -27918,7 +28056,10 @@
     <hyperlink r:id="rId611" ref="J613"/>
     <hyperlink r:id="rId612" ref="J614"/>
     <hyperlink r:id="rId613" ref="J615"/>
+    <hyperlink r:id="rId614" ref="J616"/>
+    <hyperlink r:id="rId615" ref="J617"/>
+    <hyperlink r:id="rId616" ref="J618"/>
   </hyperlinks>
-  <drawing r:id="rId614"/>
+  <drawing r:id="rId617"/>
 </worksheet>
 </file>
--- a/Tool/ExporterSheet.xlsx
+++ b/Tool/ExporterSheet.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Foaie1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Foaie2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6182" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6488" uniqueCount="1500">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -3683,6 +3684,834 @@
   </si>
   <si>
     <t>https://discord.gg/UmACwksH7G</t>
+  </si>
+  <si>
+    <t>411603310722809867</t>
+  </si>
+  <si>
+    <t>spitzboblarry</t>
+  </si>
+  <si>
+    <t>https://ciwideydamai.cfd/k39v</t>
+  </si>
+  <si>
+    <t>900945131644002334</t>
+  </si>
+  <si>
+    <t>talehhidayetov</t>
+  </si>
+  <si>
+    <t>294760387172368384</t>
+  </si>
+  <si>
+    <t>dnnmsvv</t>
+  </si>
+  <si>
+    <t>https://shorturl.at/WwI4Z</t>
+  </si>
+  <si>
+    <t>414384434394169354</t>
+  </si>
+  <si>
+    <t>lasteke</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>1-242</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>1-246</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>1-264</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>1-268</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>1-284</t>
+  </si>
+  <si>
+    <t>U.S. Virgin Islands</t>
+  </si>
+  <si>
+    <t>1-340</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>1-345</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>1-441</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>1-473</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>1-649</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>1-664</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>1-670</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>1-671</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>1-684</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>1-721</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>1-758</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>1-767</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>1-784</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>1-787, 1-939</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>1-809, 1-829, 1-849</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>1-868</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>1-869</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>1-876</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>44-1481</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>44-1534</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>44-1624</t>
   </si>
 </sst>
 </file>
@@ -3692,7 +4521,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3708,13 +4537,30 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF212529"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF212529"/>
+      <name val="Montserrat"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3723,7 +4569,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3736,6 +4582,18 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3745,6 +4603,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -27438,6 +28300,158 @@
         <v>20</v>
       </c>
       <c r="L618" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1">
+        <v>618.0</v>
+      </c>
+      <c r="B619" s="2">
+        <v>45430.0</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J619" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K619" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L619" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1">
+        <v>619.0</v>
+      </c>
+      <c r="B620" s="2">
+        <v>45430.0</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J620" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L620" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1">
+        <v>620.0</v>
+      </c>
+      <c r="B621" s="2">
+        <v>45430.0</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J621" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K621" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L621" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1">
+        <v>621.0</v>
+      </c>
+      <c r="B622" s="2">
+        <v>45430.0</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J622" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K622" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L622" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -28059,7 +29073,3148 @@
     <hyperlink r:id="rId614" ref="J616"/>
     <hyperlink r:id="rId615" ref="J617"/>
     <hyperlink r:id="rId616" ref="J618"/>
+    <hyperlink r:id="rId617" ref="J619"/>
+    <hyperlink r:id="rId618" ref="J620"/>
+    <hyperlink r:id="rId619" ref="J621"/>
+    <hyperlink r:id="rId620" ref="J622"/>
   </hyperlinks>
-  <drawing r:id="rId617"/>
+  <drawing r:id="rId621"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B6" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B8" s="5">
+        <v>31.0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B9" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B10" s="5">
+        <v>33.0</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B11" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B12" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B13" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B14" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B15" s="5">
+        <v>41.0</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43.0</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44.0</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B19" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B20" s="5">
+        <v>47.0</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B21" s="5">
+        <v>47.0</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B22" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B23" s="5">
+        <v>49.0</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B24" s="5">
+        <v>51.0</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B25" s="5">
+        <v>52.0</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B26" s="5">
+        <v>53.0</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B27" s="5">
+        <v>54.0</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B28" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B29" s="5">
+        <v>56.0</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B30" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B31" s="5">
+        <v>58.0</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B32" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B33" s="5">
+        <v>61.0</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B34" s="5">
+        <v>61.0</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B35" s="5">
+        <v>61.0</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B36" s="5">
+        <v>62.0</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B37" s="5">
+        <v>63.0</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B38" s="5">
+        <v>64.0</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B39" s="5">
+        <v>64.0</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B40" s="5">
+        <v>65.0</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B41" s="5">
+        <v>66.0</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B42" s="5">
+        <v>81.0</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B43" s="5">
+        <v>82.0</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B44" s="5">
+        <v>84.0</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B45" s="5">
+        <v>86.0</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B46" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B47" s="5">
+        <v>91.0</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B48" s="5">
+        <v>92.0</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B49" s="5">
+        <v>93.0</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B50" s="5">
+        <v>94.0</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B51" s="5">
+        <v>95.0</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B52" s="5">
+        <v>98.0</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B53" s="5">
+        <v>211.0</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B54" s="5">
+        <v>212.0</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B55" s="5">
+        <v>212.0</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B56" s="5">
+        <v>213.0</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B57" s="5">
+        <v>216.0</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B58" s="5">
+        <v>218.0</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B59" s="5">
+        <v>220.0</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B60" s="5">
+        <v>221.0</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B61" s="5">
+        <v>222.0</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B62" s="5">
+        <v>223.0</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B63" s="5">
+        <v>224.0</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B64" s="5">
+        <v>225.0</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B65" s="5">
+        <v>226.0</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B66" s="5">
+        <v>227.0</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B67" s="5">
+        <v>228.0</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B68" s="5">
+        <v>229.0</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B69" s="5">
+        <v>230.0</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B70" s="5">
+        <v>231.0</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B71" s="5">
+        <v>232.0</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B72" s="5">
+        <v>233.0</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B73" s="5">
+        <v>234.0</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B74" s="5">
+        <v>235.0</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B75" s="5">
+        <v>236.0</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B76" s="5">
+        <v>237.0</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B77" s="5">
+        <v>238.0</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B78" s="5">
+        <v>239.0</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B79" s="5">
+        <v>240.0</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B80" s="5">
+        <v>241.0</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B81" s="5">
+        <v>242.0</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B82" s="5">
+        <v>243.0</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B83" s="5">
+        <v>244.0</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B84" s="5">
+        <v>245.0</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B85" s="5">
+        <v>246.0</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B86" s="5">
+        <v>248.0</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B87" s="5">
+        <v>249.0</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B88" s="5">
+        <v>250.0</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B89" s="5">
+        <v>251.0</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B90" s="5">
+        <v>252.0</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B91" s="5">
+        <v>253.0</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B92" s="5">
+        <v>254.0</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B93" s="5">
+        <v>255.0</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B94" s="5">
+        <v>256.0</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B95" s="5">
+        <v>257.0</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B96" s="5">
+        <v>258.0</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B97" s="5">
+        <v>260.0</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B98" s="5">
+        <v>261.0</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B99" s="5">
+        <v>262.0</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B100" s="5">
+        <v>262.0</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B101" s="5">
+        <v>263.0</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B102" s="5">
+        <v>264.0</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B103" s="5">
+        <v>265.0</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B104" s="5">
+        <v>266.0</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B105" s="5">
+        <v>267.0</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B106" s="5">
+        <v>268.0</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B107" s="5">
+        <v>269.0</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B108" s="5">
+        <v>290.0</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B109" s="5">
+        <v>291.0</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B110" s="5">
+        <v>297.0</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B111" s="5">
+        <v>298.0</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B112" s="5">
+        <v>299.0</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B113" s="5">
+        <v>350.0</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B114" s="5">
+        <v>351.0</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B115" s="5">
+        <v>352.0</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B116" s="5">
+        <v>353.0</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B117" s="5">
+        <v>354.0</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B118" s="5">
+        <v>355.0</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B119" s="5">
+        <v>356.0</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B120" s="5">
+        <v>357.0</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B121" s="5">
+        <v>358.0</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B122" s="5">
+        <v>359.0</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B123" s="5">
+        <v>370.0</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B124" s="5">
+        <v>371.0</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B125" s="5">
+        <v>372.0</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B126" s="5">
+        <v>373.0</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B127" s="5">
+        <v>374.0</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B128" s="5">
+        <v>375.0</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B129" s="5">
+        <v>376.0</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B130" s="5">
+        <v>377.0</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B131" s="5">
+        <v>378.0</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B132" s="5">
+        <v>379.0</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B133" s="5">
+        <v>380.0</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B134" s="5">
+        <v>381.0</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B135" s="5">
+        <v>382.0</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B136" s="5">
+        <v>383.0</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B137" s="5">
+        <v>385.0</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B138" s="5">
+        <v>386.0</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B139" s="5">
+        <v>387.0</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B140" s="5">
+        <v>389.0</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B141" s="5">
+        <v>420.0</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B142" s="5">
+        <v>421.0</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B143" s="5">
+        <v>423.0</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B144" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B145" s="5">
+        <v>501.0</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B146" s="5">
+        <v>502.0</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B147" s="5">
+        <v>503.0</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B148" s="5">
+        <v>504.0</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B149" s="5">
+        <v>505.0</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B150" s="5">
+        <v>506.0</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B151" s="5">
+        <v>507.0</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B152" s="5">
+        <v>508.0</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B153" s="5">
+        <v>509.0</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B154" s="5">
+        <v>590.0</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="7"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B155" s="5">
+        <v>590.0</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B156" s="5">
+        <v>591.0</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B157" s="5">
+        <v>592.0</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B158" s="5">
+        <v>593.0</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="5"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B159" s="5">
+        <v>595.0</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B160" s="5">
+        <v>597.0</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B161" s="5">
+        <v>598.0</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B162" s="5">
+        <v>599.0</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B163" s="5">
+        <v>599.0</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="7"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B164" s="5">
+        <v>670.0</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B165" s="5">
+        <v>672.0</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="7"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B166" s="5">
+        <v>673.0</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B167" s="5">
+        <v>674.0</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="7"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B168" s="5">
+        <v>675.0</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B169" s="5">
+        <v>676.0</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B170" s="5">
+        <v>677.0</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B171" s="5">
+        <v>678.0</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B172" s="5">
+        <v>679.0</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B173" s="5">
+        <v>680.0</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B174" s="5">
+        <v>681.0</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="7"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B175" s="5">
+        <v>682.0</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B176" s="5">
+        <v>683.0</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B177" s="5">
+        <v>685.0</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B178" s="5">
+        <v>686.0</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B179" s="5">
+        <v>687.0</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B180" s="5">
+        <v>688.0</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B181" s="5">
+        <v>689.0</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B182" s="5">
+        <v>690.0</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="7"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B183" s="5">
+        <v>691.0</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B184" s="5">
+        <v>692.0</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B185" s="5">
+        <v>850.0</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B186" s="5">
+        <v>852.0</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B187" s="5">
+        <v>853.0</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B188" s="5">
+        <v>855.0</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="5"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B189" s="5">
+        <v>856.0</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="5"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B190" s="5">
+        <v>880.0</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="5"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B191" s="5">
+        <v>886.0</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="5"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B192" s="5">
+        <v>960.0</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B193" s="5">
+        <v>961.0</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="5"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B194" s="5">
+        <v>962.0</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="5"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B195" s="5">
+        <v>963.0</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="5"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B196" s="5">
+        <v>964.0</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B197" s="5">
+        <v>965.0</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="5"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B198" s="5">
+        <v>966.0</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="5"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B199" s="5">
+        <v>967.0</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="5"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B200" s="5">
+        <v>968.0</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="5"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B201" s="5">
+        <v>970.0</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="5"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B202" s="5">
+        <v>971.0</v>
+      </c>
+      <c r="C202" s="5"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="5"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B203" s="5">
+        <v>972.0</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="5"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B204" s="5">
+        <v>973.0</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B205" s="5">
+        <v>974.0</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="5"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B206" s="5">
+        <v>975.0</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="5"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B207" s="5">
+        <v>976.0</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="5"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B208" s="5">
+        <v>977.0</v>
+      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="5"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B209" s="5">
+        <v>992.0</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="5"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B210" s="5">
+        <v>993.0</v>
+      </c>
+      <c r="C210" s="5"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="5"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B211" s="5">
+        <v>994.0</v>
+      </c>
+      <c r="C211" s="5"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="5"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B212" s="5">
+        <v>995.0</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="5"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B213" s="5">
+        <v>996.0</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="5"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B214" s="5">
+        <v>998.0</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="5"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="5"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C216" s="5"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C217" s="5"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C220" s="5"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="7"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C223" s="5"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C224" s="5"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="7"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C225" s="5"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="7"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C226" s="5"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C227" s="5"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C228" s="5"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C229" s="5"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C230" s="5"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C232" s="5"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C233" s="5"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="5"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C234" s="5"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="5"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C235" s="5"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="5"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C236" s="5"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="5"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C238" s="5"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C239" s="5"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C240" s="5"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink r:id="rId2" ref="A2"/>
+    <hyperlink r:id="rId3" ref="A3"/>
+    <hyperlink r:id="rId4" ref="A4"/>
+    <hyperlink r:id="rId5" ref="A5"/>
+    <hyperlink r:id="rId6" ref="A6"/>
+    <hyperlink r:id="rId7" ref="A7"/>
+    <hyperlink r:id="rId8" ref="A8"/>
+    <hyperlink r:id="rId9" ref="A9"/>
+    <hyperlink r:id="rId10" ref="A10"/>
+    <hyperlink r:id="rId11" ref="A11"/>
+    <hyperlink r:id="rId12" ref="A12"/>
+    <hyperlink r:id="rId13" ref="A13"/>
+    <hyperlink r:id="rId14" ref="A14"/>
+    <hyperlink r:id="rId15" ref="A15"/>
+    <hyperlink r:id="rId16" ref="A16"/>
+    <hyperlink r:id="rId17" ref="A17"/>
+    <hyperlink r:id="rId18" ref="A18"/>
+    <hyperlink r:id="rId19" ref="A19"/>
+    <hyperlink r:id="rId20" ref="A20"/>
+    <hyperlink r:id="rId21" ref="A21"/>
+    <hyperlink r:id="rId22" ref="A22"/>
+    <hyperlink r:id="rId23" ref="A23"/>
+    <hyperlink r:id="rId24" ref="A24"/>
+    <hyperlink r:id="rId25" ref="A25"/>
+    <hyperlink r:id="rId26" ref="A26"/>
+    <hyperlink r:id="rId27" ref="A27"/>
+    <hyperlink r:id="rId28" ref="A28"/>
+    <hyperlink r:id="rId29" ref="A29"/>
+    <hyperlink r:id="rId30" ref="A30"/>
+    <hyperlink r:id="rId31" ref="A31"/>
+    <hyperlink r:id="rId32" ref="A32"/>
+    <hyperlink r:id="rId33" ref="A33"/>
+    <hyperlink r:id="rId34" ref="A34"/>
+    <hyperlink r:id="rId35" ref="A35"/>
+    <hyperlink r:id="rId36" ref="A36"/>
+    <hyperlink r:id="rId37" ref="A37"/>
+    <hyperlink r:id="rId38" ref="A38"/>
+    <hyperlink r:id="rId39" ref="A39"/>
+    <hyperlink r:id="rId40" ref="A40"/>
+    <hyperlink r:id="rId41" ref="A41"/>
+    <hyperlink r:id="rId42" ref="A42"/>
+    <hyperlink r:id="rId43" ref="A43"/>
+    <hyperlink r:id="rId44" ref="A44"/>
+    <hyperlink r:id="rId45" ref="A45"/>
+    <hyperlink r:id="rId46" ref="A46"/>
+    <hyperlink r:id="rId47" ref="A47"/>
+    <hyperlink r:id="rId48" ref="A48"/>
+    <hyperlink r:id="rId49" ref="A49"/>
+    <hyperlink r:id="rId50" ref="A50"/>
+    <hyperlink r:id="rId51" ref="A51"/>
+    <hyperlink r:id="rId52" ref="A52"/>
+    <hyperlink r:id="rId53" ref="A53"/>
+    <hyperlink r:id="rId54" ref="A54"/>
+    <hyperlink r:id="rId55" ref="A55"/>
+    <hyperlink r:id="rId56" ref="A56"/>
+    <hyperlink r:id="rId57" ref="A57"/>
+    <hyperlink r:id="rId58" ref="A58"/>
+    <hyperlink r:id="rId59" ref="A59"/>
+    <hyperlink r:id="rId60" ref="A60"/>
+    <hyperlink r:id="rId61" ref="A61"/>
+    <hyperlink r:id="rId62" ref="A62"/>
+    <hyperlink r:id="rId63" ref="A63"/>
+    <hyperlink r:id="rId64" ref="A64"/>
+    <hyperlink r:id="rId65" ref="A65"/>
+    <hyperlink r:id="rId66" ref="A66"/>
+    <hyperlink r:id="rId67" ref="A67"/>
+    <hyperlink r:id="rId68" ref="A68"/>
+    <hyperlink r:id="rId69" ref="A69"/>
+    <hyperlink r:id="rId70" ref="A70"/>
+    <hyperlink r:id="rId71" ref="A71"/>
+    <hyperlink r:id="rId72" ref="A72"/>
+    <hyperlink r:id="rId73" ref="A73"/>
+    <hyperlink r:id="rId74" ref="A74"/>
+    <hyperlink r:id="rId75" ref="A75"/>
+    <hyperlink r:id="rId76" ref="A76"/>
+    <hyperlink r:id="rId77" ref="A77"/>
+    <hyperlink r:id="rId78" ref="A78"/>
+    <hyperlink r:id="rId79" ref="A79"/>
+    <hyperlink r:id="rId80" ref="A80"/>
+    <hyperlink r:id="rId81" ref="A81"/>
+    <hyperlink r:id="rId82" ref="A82"/>
+    <hyperlink r:id="rId83" ref="A83"/>
+    <hyperlink r:id="rId84" ref="A84"/>
+    <hyperlink r:id="rId85" ref="A85"/>
+    <hyperlink r:id="rId86" ref="A86"/>
+    <hyperlink r:id="rId87" ref="A87"/>
+    <hyperlink r:id="rId88" ref="A88"/>
+    <hyperlink r:id="rId89" ref="A89"/>
+    <hyperlink r:id="rId90" ref="A90"/>
+    <hyperlink r:id="rId91" ref="A91"/>
+    <hyperlink r:id="rId92" ref="A92"/>
+    <hyperlink r:id="rId93" ref="A93"/>
+    <hyperlink r:id="rId94" ref="A94"/>
+    <hyperlink r:id="rId95" ref="A95"/>
+    <hyperlink r:id="rId96" ref="A96"/>
+    <hyperlink r:id="rId97" ref="A97"/>
+    <hyperlink r:id="rId98" ref="A98"/>
+    <hyperlink r:id="rId99" ref="A99"/>
+    <hyperlink r:id="rId100" ref="A100"/>
+    <hyperlink r:id="rId101" ref="A101"/>
+    <hyperlink r:id="rId102" ref="A102"/>
+    <hyperlink r:id="rId103" ref="A103"/>
+    <hyperlink r:id="rId104" ref="A104"/>
+    <hyperlink r:id="rId105" ref="A105"/>
+    <hyperlink r:id="rId106" ref="A106"/>
+    <hyperlink r:id="rId107" ref="A107"/>
+    <hyperlink r:id="rId108" ref="A108"/>
+    <hyperlink r:id="rId109" ref="A109"/>
+    <hyperlink r:id="rId110" ref="A110"/>
+    <hyperlink r:id="rId111" ref="A111"/>
+    <hyperlink r:id="rId112" ref="A112"/>
+    <hyperlink r:id="rId113" ref="A113"/>
+    <hyperlink r:id="rId114" ref="A114"/>
+    <hyperlink r:id="rId115" ref="A115"/>
+    <hyperlink r:id="rId116" ref="A116"/>
+    <hyperlink r:id="rId117" ref="A117"/>
+    <hyperlink r:id="rId118" ref="A118"/>
+    <hyperlink r:id="rId119" ref="A119"/>
+    <hyperlink r:id="rId120" ref="A120"/>
+    <hyperlink r:id="rId121" ref="A121"/>
+    <hyperlink r:id="rId122" ref="A122"/>
+    <hyperlink r:id="rId123" ref="A123"/>
+    <hyperlink r:id="rId124" ref="A124"/>
+    <hyperlink r:id="rId125" ref="A125"/>
+    <hyperlink r:id="rId126" ref="A126"/>
+    <hyperlink r:id="rId127" ref="A127"/>
+    <hyperlink r:id="rId128" ref="A128"/>
+    <hyperlink r:id="rId129" ref="A129"/>
+    <hyperlink r:id="rId130" ref="A130"/>
+    <hyperlink r:id="rId131" ref="A131"/>
+    <hyperlink r:id="rId132" ref="A132"/>
+    <hyperlink r:id="rId133" ref="A133"/>
+    <hyperlink r:id="rId134" ref="A134"/>
+    <hyperlink r:id="rId135" ref="A135"/>
+    <hyperlink r:id="rId136" ref="A136"/>
+    <hyperlink r:id="rId137" ref="A137"/>
+    <hyperlink r:id="rId138" ref="A138"/>
+    <hyperlink r:id="rId139" ref="A139"/>
+    <hyperlink r:id="rId140" ref="A140"/>
+    <hyperlink r:id="rId141" ref="A141"/>
+    <hyperlink r:id="rId142" ref="A142"/>
+    <hyperlink r:id="rId143" ref="A143"/>
+    <hyperlink r:id="rId144" ref="A144"/>
+    <hyperlink r:id="rId145" ref="A145"/>
+    <hyperlink r:id="rId146" ref="A146"/>
+    <hyperlink r:id="rId147" ref="A147"/>
+    <hyperlink r:id="rId148" ref="A148"/>
+    <hyperlink r:id="rId149" ref="A149"/>
+    <hyperlink r:id="rId150" ref="A150"/>
+    <hyperlink r:id="rId151" ref="A151"/>
+    <hyperlink r:id="rId152" ref="A152"/>
+    <hyperlink r:id="rId153" ref="A153"/>
+    <hyperlink r:id="rId154" ref="A154"/>
+    <hyperlink r:id="rId155" ref="A155"/>
+    <hyperlink r:id="rId156" ref="A156"/>
+    <hyperlink r:id="rId157" ref="A157"/>
+    <hyperlink r:id="rId158" ref="A158"/>
+    <hyperlink r:id="rId159" ref="A159"/>
+    <hyperlink r:id="rId160" ref="A160"/>
+    <hyperlink r:id="rId161" ref="A161"/>
+    <hyperlink r:id="rId162" ref="A162"/>
+    <hyperlink r:id="rId163" ref="A163"/>
+    <hyperlink r:id="rId164" ref="A164"/>
+    <hyperlink r:id="rId165" ref="A165"/>
+    <hyperlink r:id="rId166" ref="A166"/>
+    <hyperlink r:id="rId167" ref="A167"/>
+    <hyperlink r:id="rId168" ref="A168"/>
+    <hyperlink r:id="rId169" ref="A169"/>
+    <hyperlink r:id="rId170" ref="A170"/>
+    <hyperlink r:id="rId171" ref="A171"/>
+    <hyperlink r:id="rId172" ref="A172"/>
+    <hyperlink r:id="rId173" ref="A173"/>
+    <hyperlink r:id="rId174" ref="A174"/>
+    <hyperlink r:id="rId175" ref="A175"/>
+    <hyperlink r:id="rId176" ref="A176"/>
+    <hyperlink r:id="rId177" ref="A177"/>
+    <hyperlink r:id="rId178" ref="A178"/>
+    <hyperlink r:id="rId179" ref="A179"/>
+    <hyperlink r:id="rId180" ref="A180"/>
+    <hyperlink r:id="rId181" ref="A181"/>
+    <hyperlink r:id="rId182" ref="A182"/>
+    <hyperlink r:id="rId183" ref="A183"/>
+    <hyperlink r:id="rId184" ref="A184"/>
+    <hyperlink r:id="rId185" ref="A185"/>
+    <hyperlink r:id="rId186" ref="A186"/>
+    <hyperlink r:id="rId187" ref="A187"/>
+    <hyperlink r:id="rId188" ref="A188"/>
+    <hyperlink r:id="rId189" ref="A189"/>
+    <hyperlink r:id="rId190" ref="A190"/>
+    <hyperlink r:id="rId191" ref="A191"/>
+    <hyperlink r:id="rId192" ref="A192"/>
+    <hyperlink r:id="rId193" ref="A193"/>
+    <hyperlink r:id="rId194" ref="A194"/>
+    <hyperlink r:id="rId195" ref="A195"/>
+    <hyperlink r:id="rId196" ref="A196"/>
+    <hyperlink r:id="rId197" ref="A197"/>
+    <hyperlink r:id="rId198" ref="A198"/>
+    <hyperlink r:id="rId199" ref="A199"/>
+    <hyperlink r:id="rId200" ref="A200"/>
+    <hyperlink r:id="rId201" ref="A201"/>
+    <hyperlink r:id="rId202" ref="A202"/>
+    <hyperlink r:id="rId203" ref="A203"/>
+    <hyperlink r:id="rId204" ref="A204"/>
+    <hyperlink r:id="rId205" ref="A205"/>
+    <hyperlink r:id="rId206" ref="A206"/>
+    <hyperlink r:id="rId207" ref="A207"/>
+    <hyperlink r:id="rId208" ref="A208"/>
+    <hyperlink r:id="rId209" ref="A209"/>
+    <hyperlink r:id="rId210" ref="A210"/>
+    <hyperlink r:id="rId211" ref="A211"/>
+    <hyperlink r:id="rId212" ref="A212"/>
+    <hyperlink r:id="rId213" ref="A213"/>
+    <hyperlink r:id="rId214" ref="A214"/>
+    <hyperlink r:id="rId215" ref="A215"/>
+    <hyperlink r:id="rId216" ref="A216"/>
+    <hyperlink r:id="rId217" ref="A217"/>
+    <hyperlink r:id="rId218" ref="A218"/>
+    <hyperlink r:id="rId219" ref="A219"/>
+    <hyperlink r:id="rId220" ref="A220"/>
+    <hyperlink r:id="rId221" ref="A221"/>
+    <hyperlink r:id="rId222" ref="A222"/>
+    <hyperlink r:id="rId223" ref="A223"/>
+    <hyperlink r:id="rId224" ref="A224"/>
+    <hyperlink r:id="rId225" ref="A225"/>
+    <hyperlink r:id="rId226" ref="A226"/>
+    <hyperlink r:id="rId227" ref="A227"/>
+    <hyperlink r:id="rId228" ref="A228"/>
+    <hyperlink r:id="rId229" ref="A229"/>
+    <hyperlink r:id="rId230" ref="A230"/>
+    <hyperlink r:id="rId231" ref="A231"/>
+    <hyperlink r:id="rId232" ref="A232"/>
+    <hyperlink r:id="rId233" ref="A233"/>
+    <hyperlink r:id="rId234" ref="A234"/>
+    <hyperlink r:id="rId235" ref="A235"/>
+    <hyperlink r:id="rId236" ref="A236"/>
+    <hyperlink r:id="rId237" ref="A237"/>
+    <hyperlink r:id="rId238" ref="A238"/>
+    <hyperlink r:id="rId239" ref="A239"/>
+    <hyperlink r:id="rId240" ref="A240"/>
+  </hyperlinks>
+  <drawing r:id="rId241"/>
 </worksheet>
 </file>
--- a/Tool/ExporterSheet.xlsx
+++ b/Tool/ExporterSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6488" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6588" uniqueCount="1521">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -3714,6 +3714,69 @@
   </si>
   <si>
     <t>lasteke</t>
+  </si>
+  <si>
+    <t>486468622059962369</t>
+  </si>
+  <si>
+    <t>bnb_david</t>
+  </si>
+  <si>
+    <t>https://qptr.ru/eUJ6</t>
+  </si>
+  <si>
+    <t>1099711205314146326</t>
+  </si>
+  <si>
+    <t>dishikrisz</t>
+  </si>
+  <si>
+    <t>639856562403541012</t>
+  </si>
+  <si>
+    <t>vkycn9lshka</t>
+  </si>
+  <si>
+    <t>https://surl.pk/6sico</t>
+  </si>
+  <si>
+    <t>586270085845352474</t>
+  </si>
+  <si>
+    <t>kotiynet</t>
+  </si>
+  <si>
+    <t>522107951536930817</t>
+  </si>
+  <si>
+    <t>zveranime</t>
+  </si>
+  <si>
+    <t>634691517126148096</t>
+  </si>
+  <si>
+    <t>jackal0217</t>
+  </si>
+  <si>
+    <t>https://discord.gg/xxxhub</t>
+  </si>
+  <si>
+    <t>734106066031476790</t>
+  </si>
+  <si>
+    <t>atom1xuuu</t>
+  </si>
+  <si>
+    <t>https://discord.gg/k4pyNmkr</t>
+  </si>
+  <si>
+    <t>https://discord.gg/exclusivensfw</t>
+  </si>
+  <si>
+    <t>https://direct-links.org/s?xS7K</t>
+  </si>
+  <si>
+    <t>https://discord.gg/nsfwspot</t>
   </si>
   <si>
     <t>Canada</t>
@@ -28452,6 +28515,386 @@
         <v>30</v>
       </c>
       <c r="L622" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1">
+        <v>622.0</v>
+      </c>
+      <c r="B623" s="2">
+        <v>45431.0</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J623" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K623" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L623" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="B624" s="2">
+        <v>45431.0</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J624" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K624" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L624" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1">
+        <v>624.0</v>
+      </c>
+      <c r="B625" s="2">
+        <v>45431.0</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H625" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I625" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J625" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K625" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L625" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1">
+        <v>625.0</v>
+      </c>
+      <c r="B626" s="2">
+        <v>45431.0</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J626" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K626" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L626" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1">
+        <v>626.0</v>
+      </c>
+      <c r="B627" s="2">
+        <v>45431.0</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J627" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K627" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L627" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1">
+        <v>627.0</v>
+      </c>
+      <c r="B628" s="2">
+        <v>45432.0</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J628" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K628" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L628" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1">
+        <v>628.0</v>
+      </c>
+      <c r="B629" s="2">
+        <v>45433.0</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J629" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K629" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L629" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1">
+        <v>629.0</v>
+      </c>
+      <c r="B630" s="2">
+        <v>45433.0</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J630" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K630" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L630" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1">
+        <v>630.0</v>
+      </c>
+      <c r="B631" s="2">
+        <v>45433.0</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J631" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K631" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L631" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1">
+        <v>631.0</v>
+      </c>
+      <c r="B632" s="2">
+        <v>45433.0</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H632" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J632" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K632" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L632" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -29077,8 +29520,18 @@
     <hyperlink r:id="rId618" ref="J620"/>
     <hyperlink r:id="rId619" ref="J621"/>
     <hyperlink r:id="rId620" ref="J622"/>
+    <hyperlink r:id="rId621" ref="J623"/>
+    <hyperlink r:id="rId622" ref="J624"/>
+    <hyperlink r:id="rId623" ref="J625"/>
+    <hyperlink r:id="rId624" ref="J626"/>
+    <hyperlink r:id="rId625" ref="J627"/>
+    <hyperlink r:id="rId626" ref="J628"/>
+    <hyperlink r:id="rId627" ref="J629"/>
+    <hyperlink r:id="rId628" ref="J630"/>
+    <hyperlink r:id="rId629" ref="J631"/>
+    <hyperlink r:id="rId630" ref="J632"/>
   </hyperlinks>
-  <drawing r:id="rId621"/>
+  <drawing r:id="rId631"/>
 </worksheet>
 </file>
 
@@ -29094,7 +29547,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1234</v>
+        <v>1255</v>
       </c>
       <c r="B1" s="5">
         <v>1.0</v>
@@ -29106,7 +29559,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1235</v>
+        <v>1256</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
@@ -29118,7 +29571,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1236</v>
+        <v>1257</v>
       </c>
       <c r="B3" s="5">
         <v>7.0</v>
@@ -29130,7 +29583,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1237</v>
+        <v>1258</v>
       </c>
       <c r="B4" s="5">
         <v>7.0</v>
@@ -29142,7 +29595,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1238</v>
+        <v>1259</v>
       </c>
       <c r="B5" s="5">
         <v>20.0</v>
@@ -29154,7 +29607,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1239</v>
+        <v>1260</v>
       </c>
       <c r="B6" s="5">
         <v>27.0</v>
@@ -29166,7 +29619,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
       <c r="B7" s="5">
         <v>30.0</v>
@@ -29178,7 +29631,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1241</v>
+        <v>1262</v>
       </c>
       <c r="B8" s="5">
         <v>31.0</v>
@@ -29190,7 +29643,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1242</v>
+        <v>1263</v>
       </c>
       <c r="B9" s="5">
         <v>32.0</v>
@@ -29202,7 +29655,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1243</v>
+        <v>1264</v>
       </c>
       <c r="B10" s="5">
         <v>33.0</v>
@@ -29214,7 +29667,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
       <c r="B11" s="5">
         <v>34.0</v>
@@ -29226,7 +29679,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>1245</v>
+        <v>1266</v>
       </c>
       <c r="B12" s="5">
         <v>36.0</v>
@@ -29238,7 +29691,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>1246</v>
+        <v>1267</v>
       </c>
       <c r="B13" s="5">
         <v>39.0</v>
@@ -29250,7 +29703,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>1247</v>
+        <v>1268</v>
       </c>
       <c r="B14" s="5">
         <v>40.0</v>
@@ -29262,7 +29715,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>1248</v>
+        <v>1269</v>
       </c>
       <c r="B15" s="5">
         <v>41.0</v>
@@ -29274,7 +29727,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>1249</v>
+        <v>1270</v>
       </c>
       <c r="B16" s="5">
         <v>43.0</v>
@@ -29286,7 +29739,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>1250</v>
+        <v>1271</v>
       </c>
       <c r="B17" s="5">
         <v>44.0</v>
@@ -29298,7 +29751,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>1251</v>
+        <v>1272</v>
       </c>
       <c r="B18" s="5">
         <v>45.0</v>
@@ -29310,7 +29763,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>1252</v>
+        <v>1273</v>
       </c>
       <c r="B19" s="5">
         <v>46.0</v>
@@ -29322,7 +29775,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>1253</v>
+        <v>1274</v>
       </c>
       <c r="B20" s="5">
         <v>47.0</v>
@@ -29334,7 +29787,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>1254</v>
+        <v>1275</v>
       </c>
       <c r="B21" s="5">
         <v>47.0</v>
@@ -29346,7 +29799,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>1255</v>
+        <v>1276</v>
       </c>
       <c r="B22" s="5">
         <v>48.0</v>
@@ -29358,7 +29811,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>1256</v>
+        <v>1277</v>
       </c>
       <c r="B23" s="5">
         <v>49.0</v>
@@ -29370,7 +29823,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>1257</v>
+        <v>1278</v>
       </c>
       <c r="B24" s="5">
         <v>51.0</v>
@@ -29382,7 +29835,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>1258</v>
+        <v>1279</v>
       </c>
       <c r="B25" s="5">
         <v>52.0</v>
@@ -29394,7 +29847,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>1259</v>
+        <v>1280</v>
       </c>
       <c r="B26" s="5">
         <v>53.0</v>
@@ -29406,7 +29859,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>1260</v>
+        <v>1281</v>
       </c>
       <c r="B27" s="5">
         <v>54.0</v>
@@ -29418,7 +29871,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>1261</v>
+        <v>1282</v>
       </c>
       <c r="B28" s="5">
         <v>55.0</v>
@@ -29430,7 +29883,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>1262</v>
+        <v>1283</v>
       </c>
       <c r="B29" s="5">
         <v>56.0</v>
@@ -29442,7 +29895,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>1263</v>
+        <v>1284</v>
       </c>
       <c r="B30" s="5">
         <v>57.0</v>
@@ -29454,7 +29907,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>1264</v>
+        <v>1285</v>
       </c>
       <c r="B31" s="5">
         <v>58.0</v>
@@ -29466,7 +29919,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>1265</v>
+        <v>1286</v>
       </c>
       <c r="B32" s="5">
         <v>60.0</v>
@@ -29478,7 +29931,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>1266</v>
+        <v>1287</v>
       </c>
       <c r="B33" s="5">
         <v>61.0</v>
@@ -29490,7 +29943,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>1267</v>
+        <v>1288</v>
       </c>
       <c r="B34" s="5">
         <v>61.0</v>
@@ -29502,7 +29955,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>1268</v>
+        <v>1289</v>
       </c>
       <c r="B35" s="5">
         <v>61.0</v>
@@ -29514,7 +29967,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>1269</v>
+        <v>1290</v>
       </c>
       <c r="B36" s="5">
         <v>62.0</v>
@@ -29526,7 +29979,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>1270</v>
+        <v>1291</v>
       </c>
       <c r="B37" s="5">
         <v>63.0</v>
@@ -29538,7 +29991,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>1271</v>
+        <v>1292</v>
       </c>
       <c r="B38" s="5">
         <v>64.0</v>
@@ -29550,7 +30003,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>1272</v>
+        <v>1293</v>
       </c>
       <c r="B39" s="5">
         <v>64.0</v>
@@ -29562,7 +30015,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>1273</v>
+        <v>1294</v>
       </c>
       <c r="B40" s="5">
         <v>65.0</v>
@@ -29574,7 +30027,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>1274</v>
+        <v>1295</v>
       </c>
       <c r="B41" s="5">
         <v>66.0</v>
@@ -29586,7 +30039,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>1275</v>
+        <v>1296</v>
       </c>
       <c r="B42" s="5">
         <v>81.0</v>
@@ -29598,7 +30051,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>1276</v>
+        <v>1297</v>
       </c>
       <c r="B43" s="5">
         <v>82.0</v>
@@ -29610,7 +30063,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>1277</v>
+        <v>1298</v>
       </c>
       <c r="B44" s="5">
         <v>84.0</v>
@@ -29622,7 +30075,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>1278</v>
+        <v>1299</v>
       </c>
       <c r="B45" s="5">
         <v>86.0</v>
@@ -29634,7 +30087,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>1279</v>
+        <v>1300</v>
       </c>
       <c r="B46" s="5">
         <v>90.0</v>
@@ -29646,7 +30099,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>1280</v>
+        <v>1301</v>
       </c>
       <c r="B47" s="5">
         <v>91.0</v>
@@ -29658,7 +30111,7 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>1281</v>
+        <v>1302</v>
       </c>
       <c r="B48" s="5">
         <v>92.0</v>
@@ -29670,7 +30123,7 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>1282</v>
+        <v>1303</v>
       </c>
       <c r="B49" s="5">
         <v>93.0</v>
@@ -29682,7 +30135,7 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>1283</v>
+        <v>1304</v>
       </c>
       <c r="B50" s="5">
         <v>94.0</v>
@@ -29694,7 +30147,7 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>1284</v>
+        <v>1305</v>
       </c>
       <c r="B51" s="5">
         <v>95.0</v>
@@ -29706,7 +30159,7 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>1285</v>
+        <v>1306</v>
       </c>
       <c r="B52" s="5">
         <v>98.0</v>
@@ -29718,7 +30171,7 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>1286</v>
+        <v>1307</v>
       </c>
       <c r="B53" s="5">
         <v>211.0</v>
@@ -29730,7 +30183,7 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>1287</v>
+        <v>1308</v>
       </c>
       <c r="B54" s="5">
         <v>212.0</v>
@@ -29742,7 +30195,7 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>1288</v>
+        <v>1309</v>
       </c>
       <c r="B55" s="5">
         <v>212.0</v>
@@ -29754,7 +30207,7 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>1289</v>
+        <v>1310</v>
       </c>
       <c r="B56" s="5">
         <v>213.0</v>
@@ -29766,7 +30219,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>1290</v>
+        <v>1311</v>
       </c>
       <c r="B57" s="5">
         <v>216.0</v>
@@ -29778,7 +30231,7 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>1291</v>
+        <v>1312</v>
       </c>
       <c r="B58" s="5">
         <v>218.0</v>
@@ -29790,7 +30243,7 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>1292</v>
+        <v>1313</v>
       </c>
       <c r="B59" s="5">
         <v>220.0</v>
@@ -29802,7 +30255,7 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>1293</v>
+        <v>1314</v>
       </c>
       <c r="B60" s="5">
         <v>221.0</v>
@@ -29814,7 +30267,7 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>1294</v>
+        <v>1315</v>
       </c>
       <c r="B61" s="5">
         <v>222.0</v>
@@ -29826,7 +30279,7 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>1295</v>
+        <v>1316</v>
       </c>
       <c r="B62" s="5">
         <v>223.0</v>
@@ -29838,7 +30291,7 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>1296</v>
+        <v>1317</v>
       </c>
       <c r="B63" s="5">
         <v>224.0</v>
@@ -29850,7 +30303,7 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>1297</v>
+        <v>1318</v>
       </c>
       <c r="B64" s="5">
         <v>225.0</v>
@@ -29862,7 +30315,7 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>1298</v>
+        <v>1319</v>
       </c>
       <c r="B65" s="5">
         <v>226.0</v>
@@ -29874,7 +30327,7 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>1299</v>
+        <v>1320</v>
       </c>
       <c r="B66" s="5">
         <v>227.0</v>
@@ -29886,7 +30339,7 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>1300</v>
+        <v>1321</v>
       </c>
       <c r="B67" s="5">
         <v>228.0</v>
@@ -29898,7 +30351,7 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>1301</v>
+        <v>1322</v>
       </c>
       <c r="B68" s="5">
         <v>229.0</v>
@@ -29910,7 +30363,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>1302</v>
+        <v>1323</v>
       </c>
       <c r="B69" s="5">
         <v>230.0</v>
@@ -29922,7 +30375,7 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>1303</v>
+        <v>1324</v>
       </c>
       <c r="B70" s="5">
         <v>231.0</v>
@@ -29934,7 +30387,7 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>1304</v>
+        <v>1325</v>
       </c>
       <c r="B71" s="5">
         <v>232.0</v>
@@ -29946,7 +30399,7 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>1305</v>
+        <v>1326</v>
       </c>
       <c r="B72" s="5">
         <v>233.0</v>
@@ -29958,7 +30411,7 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>1306</v>
+        <v>1327</v>
       </c>
       <c r="B73" s="5">
         <v>234.0</v>
@@ -29970,7 +30423,7 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>1307</v>
+        <v>1328</v>
       </c>
       <c r="B74" s="5">
         <v>235.0</v>
@@ -29982,7 +30435,7 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>1308</v>
+        <v>1329</v>
       </c>
       <c r="B75" s="5">
         <v>236.0</v>
@@ -29994,7 +30447,7 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>1309</v>
+        <v>1330</v>
       </c>
       <c r="B76" s="5">
         <v>237.0</v>
@@ -30006,7 +30459,7 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>1310</v>
+        <v>1331</v>
       </c>
       <c r="B77" s="5">
         <v>238.0</v>
@@ -30018,7 +30471,7 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>1311</v>
+        <v>1332</v>
       </c>
       <c r="B78" s="5">
         <v>239.0</v>
@@ -30030,7 +30483,7 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>1312</v>
+        <v>1333</v>
       </c>
       <c r="B79" s="5">
         <v>240.0</v>
@@ -30042,7 +30495,7 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>1313</v>
+        <v>1334</v>
       </c>
       <c r="B80" s="5">
         <v>241.0</v>
@@ -30054,7 +30507,7 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>1314</v>
+        <v>1335</v>
       </c>
       <c r="B81" s="5">
         <v>242.0</v>
@@ -30066,7 +30519,7 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>1315</v>
+        <v>1336</v>
       </c>
       <c r="B82" s="5">
         <v>243.0</v>
@@ -30078,7 +30531,7 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>1316</v>
+        <v>1337</v>
       </c>
       <c r="B83" s="5">
         <v>244.0</v>
@@ -30090,7 +30543,7 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>1317</v>
+        <v>1338</v>
       </c>
       <c r="B84" s="5">
         <v>245.0</v>
@@ -30102,7 +30555,7 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>1318</v>
+        <v>1339</v>
       </c>
       <c r="B85" s="5">
         <v>246.0</v>
@@ -30114,7 +30567,7 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>1319</v>
+        <v>1340</v>
       </c>
       <c r="B86" s="5">
         <v>248.0</v>
@@ -30126,7 +30579,7 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>1320</v>
+        <v>1341</v>
       </c>
       <c r="B87" s="5">
         <v>249.0</v>
@@ -30138,7 +30591,7 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>1321</v>
+        <v>1342</v>
       </c>
       <c r="B88" s="5">
         <v>250.0</v>
@@ -30150,7 +30603,7 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>1322</v>
+        <v>1343</v>
       </c>
       <c r="B89" s="5">
         <v>251.0</v>
@@ -30162,7 +30615,7 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>1323</v>
+        <v>1344</v>
       </c>
       <c r="B90" s="5">
         <v>252.0</v>
@@ -30174,7 +30627,7 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>1324</v>
+        <v>1345</v>
       </c>
       <c r="B91" s="5">
         <v>253.0</v>
@@ -30186,7 +30639,7 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>1325</v>
+        <v>1346</v>
       </c>
       <c r="B92" s="5">
         <v>254.0</v>
@@ -30198,7 +30651,7 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>1326</v>
+        <v>1347</v>
       </c>
       <c r="B93" s="5">
         <v>255.0</v>
@@ -30210,7 +30663,7 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>1327</v>
+        <v>1348</v>
       </c>
       <c r="B94" s="5">
         <v>256.0</v>
@@ -30222,7 +30675,7 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>1328</v>
+        <v>1349</v>
       </c>
       <c r="B95" s="5">
         <v>257.0</v>
@@ -30234,7 +30687,7 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>1329</v>
+        <v>1350</v>
       </c>
       <c r="B96" s="5">
         <v>258.0</v>
@@ -30246,7 +30699,7 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>1330</v>
+        <v>1351</v>
       </c>
       <c r="B97" s="5">
         <v>260.0</v>
@@ -30258,7 +30711,7 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>1331</v>
+        <v>1352</v>
       </c>
       <c r="B98" s="5">
         <v>261.0</v>
@@ -30270,7 +30723,7 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>1332</v>
+        <v>1353</v>
       </c>
       <c r="B99" s="5">
         <v>262.0</v>
@@ -30282,7 +30735,7 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>1333</v>
+        <v>1354</v>
       </c>
       <c r="B100" s="5">
         <v>262.0</v>
@@ -30294,7 +30747,7 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>1334</v>
+        <v>1355</v>
       </c>
       <c r="B101" s="5">
         <v>263.0</v>
@@ -30306,7 +30759,7 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>1335</v>
+        <v>1356</v>
       </c>
       <c r="B102" s="5">
         <v>264.0</v>
@@ -30318,7 +30771,7 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>1336</v>
+        <v>1357</v>
       </c>
       <c r="B103" s="5">
         <v>265.0</v>
@@ -30330,7 +30783,7 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="B104" s="5">
         <v>266.0</v>
@@ -30342,7 +30795,7 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>1338</v>
+        <v>1359</v>
       </c>
       <c r="B105" s="5">
         <v>267.0</v>
@@ -30354,7 +30807,7 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>1339</v>
+        <v>1360</v>
       </c>
       <c r="B106" s="5">
         <v>268.0</v>
@@ -30366,7 +30819,7 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>1340</v>
+        <v>1361</v>
       </c>
       <c r="B107" s="5">
         <v>269.0</v>
@@ -30378,7 +30831,7 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>1341</v>
+        <v>1362</v>
       </c>
       <c r="B108" s="5">
         <v>290.0</v>
@@ -30390,7 +30843,7 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>1342</v>
+        <v>1363</v>
       </c>
       <c r="B109" s="5">
         <v>291.0</v>
@@ -30402,7 +30855,7 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>1343</v>
+        <v>1364</v>
       </c>
       <c r="B110" s="5">
         <v>297.0</v>
@@ -30414,7 +30867,7 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>1344</v>
+        <v>1365</v>
       </c>
       <c r="B111" s="5">
         <v>298.0</v>
@@ -30426,7 +30879,7 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>1345</v>
+        <v>1366</v>
       </c>
       <c r="B112" s="5">
         <v>299.0</v>
@@ -30438,7 +30891,7 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>1346</v>
+        <v>1367</v>
       </c>
       <c r="B113" s="5">
         <v>350.0</v>
@@ -30450,7 +30903,7 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>1347</v>
+        <v>1368</v>
       </c>
       <c r="B114" s="5">
         <v>351.0</v>
@@ -30462,7 +30915,7 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>1348</v>
+        <v>1369</v>
       </c>
       <c r="B115" s="5">
         <v>352.0</v>
@@ -30474,7 +30927,7 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>1349</v>
+        <v>1370</v>
       </c>
       <c r="B116" s="5">
         <v>353.0</v>
@@ -30486,7 +30939,7 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>1350</v>
+        <v>1371</v>
       </c>
       <c r="B117" s="5">
         <v>354.0</v>
@@ -30498,7 +30951,7 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>1351</v>
+        <v>1372</v>
       </c>
       <c r="B118" s="5">
         <v>355.0</v>
@@ -30510,7 +30963,7 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>1352</v>
+        <v>1373</v>
       </c>
       <c r="B119" s="5">
         <v>356.0</v>
@@ -30522,7 +30975,7 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="B120" s="5">
         <v>357.0</v>
@@ -30534,7 +30987,7 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>1354</v>
+        <v>1375</v>
       </c>
       <c r="B121" s="5">
         <v>358.0</v>
@@ -30546,7 +30999,7 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>1355</v>
+        <v>1376</v>
       </c>
       <c r="B122" s="5">
         <v>359.0</v>
@@ -30558,7 +31011,7 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>1356</v>
+        <v>1377</v>
       </c>
       <c r="B123" s="5">
         <v>370.0</v>
@@ -30570,7 +31023,7 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>1357</v>
+        <v>1378</v>
       </c>
       <c r="B124" s="5">
         <v>371.0</v>
@@ -30582,7 +31035,7 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>1358</v>
+        <v>1379</v>
       </c>
       <c r="B125" s="5">
         <v>372.0</v>
@@ -30594,7 +31047,7 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>1359</v>
+        <v>1380</v>
       </c>
       <c r="B126" s="5">
         <v>373.0</v>
@@ -30606,7 +31059,7 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>1360</v>
+        <v>1381</v>
       </c>
       <c r="B127" s="5">
         <v>374.0</v>
@@ -30618,7 +31071,7 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
       <c r="B128" s="5">
         <v>375.0</v>
@@ -30630,7 +31083,7 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>1362</v>
+        <v>1383</v>
       </c>
       <c r="B129" s="5">
         <v>376.0</v>
@@ -30642,7 +31095,7 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>1363</v>
+        <v>1384</v>
       </c>
       <c r="B130" s="5">
         <v>377.0</v>
@@ -30654,7 +31107,7 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>1364</v>
+        <v>1385</v>
       </c>
       <c r="B131" s="5">
         <v>378.0</v>
@@ -30666,7 +31119,7 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>1365</v>
+        <v>1386</v>
       </c>
       <c r="B132" s="5">
         <v>379.0</v>
@@ -30678,7 +31131,7 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="B133" s="5">
         <v>380.0</v>
@@ -30690,7 +31143,7 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>1367</v>
+        <v>1388</v>
       </c>
       <c r="B134" s="5">
         <v>381.0</v>
@@ -30702,7 +31155,7 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>1368</v>
+        <v>1389</v>
       </c>
       <c r="B135" s="5">
         <v>382.0</v>
@@ -30714,7 +31167,7 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>1369</v>
+        <v>1390</v>
       </c>
       <c r="B136" s="5">
         <v>383.0</v>
@@ -30726,7 +31179,7 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>1370</v>
+        <v>1391</v>
       </c>
       <c r="B137" s="5">
         <v>385.0</v>
@@ -30738,7 +31191,7 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>1371</v>
+        <v>1392</v>
       </c>
       <c r="B138" s="5">
         <v>386.0</v>
@@ -30750,7 +31203,7 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>1372</v>
+        <v>1393</v>
       </c>
       <c r="B139" s="5">
         <v>387.0</v>
@@ -30762,7 +31215,7 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>1373</v>
+        <v>1394</v>
       </c>
       <c r="B140" s="5">
         <v>389.0</v>
@@ -30774,7 +31227,7 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>1374</v>
+        <v>1395</v>
       </c>
       <c r="B141" s="5">
         <v>420.0</v>
@@ -30786,7 +31239,7 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>1375</v>
+        <v>1396</v>
       </c>
       <c r="B142" s="5">
         <v>421.0</v>
@@ -30798,7 +31251,7 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>1376</v>
+        <v>1397</v>
       </c>
       <c r="B143" s="5">
         <v>423.0</v>
@@ -30810,7 +31263,7 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>1377</v>
+        <v>1398</v>
       </c>
       <c r="B144" s="5">
         <v>500.0</v>
@@ -30822,7 +31275,7 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>1378</v>
+        <v>1399</v>
       </c>
       <c r="B145" s="5">
         <v>501.0</v>
@@ -30834,7 +31287,7 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>1379</v>
+        <v>1400</v>
       </c>
       <c r="B146" s="5">
         <v>502.0</v>
@@ -30846,7 +31299,7 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>1380</v>
+        <v>1401</v>
       </c>
       <c r="B147" s="5">
         <v>503.0</v>
@@ -30858,7 +31311,7 @@
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>1381</v>
+        <v>1402</v>
       </c>
       <c r="B148" s="5">
         <v>504.0</v>
@@ -30870,7 +31323,7 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>1382</v>
+        <v>1403</v>
       </c>
       <c r="B149" s="5">
         <v>505.0</v>
@@ -30882,7 +31335,7 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>1383</v>
+        <v>1404</v>
       </c>
       <c r="B150" s="5">
         <v>506.0</v>
@@ -30894,7 +31347,7 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>1384</v>
+        <v>1405</v>
       </c>
       <c r="B151" s="5">
         <v>507.0</v>
@@ -30906,7 +31359,7 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>1385</v>
+        <v>1406</v>
       </c>
       <c r="B152" s="5">
         <v>508.0</v>
@@ -30918,7 +31371,7 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>1386</v>
+        <v>1407</v>
       </c>
       <c r="B153" s="5">
         <v>509.0</v>
@@ -30930,7 +31383,7 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>1387</v>
+        <v>1408</v>
       </c>
       <c r="B154" s="5">
         <v>590.0</v>
@@ -30942,7 +31395,7 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>1388</v>
+        <v>1409</v>
       </c>
       <c r="B155" s="5">
         <v>590.0</v>
@@ -30954,7 +31407,7 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>1389</v>
+        <v>1410</v>
       </c>
       <c r="B156" s="5">
         <v>591.0</v>
@@ -30966,7 +31419,7 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>1390</v>
+        <v>1411</v>
       </c>
       <c r="B157" s="5">
         <v>592.0</v>
@@ -30978,7 +31431,7 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>1391</v>
+        <v>1412</v>
       </c>
       <c r="B158" s="5">
         <v>593.0</v>
@@ -30990,7 +31443,7 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>1392</v>
+        <v>1413</v>
       </c>
       <c r="B159" s="5">
         <v>595.0</v>
@@ -31002,7 +31455,7 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>1393</v>
+        <v>1414</v>
       </c>
       <c r="B160" s="5">
         <v>597.0</v>
@@ -31014,7 +31467,7 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>1394</v>
+        <v>1415</v>
       </c>
       <c r="B161" s="5">
         <v>598.0</v>
@@ -31026,7 +31479,7 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>1395</v>
+        <v>1416</v>
       </c>
       <c r="B162" s="5">
         <v>599.0</v>
@@ -31038,7 +31491,7 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>1396</v>
+        <v>1417</v>
       </c>
       <c r="B163" s="5">
         <v>599.0</v>
@@ -31050,7 +31503,7 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>1397</v>
+        <v>1418</v>
       </c>
       <c r="B164" s="5">
         <v>670.0</v>
@@ -31062,7 +31515,7 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>1398</v>
+        <v>1419</v>
       </c>
       <c r="B165" s="5">
         <v>672.0</v>
@@ -31074,7 +31527,7 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>1399</v>
+        <v>1420</v>
       </c>
       <c r="B166" s="5">
         <v>673.0</v>
@@ -31086,7 +31539,7 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>1400</v>
+        <v>1421</v>
       </c>
       <c r="B167" s="5">
         <v>674.0</v>
@@ -31098,7 +31551,7 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>1401</v>
+        <v>1422</v>
       </c>
       <c r="B168" s="5">
         <v>675.0</v>
@@ -31110,7 +31563,7 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>1402</v>
+        <v>1423</v>
       </c>
       <c r="B169" s="5">
         <v>676.0</v>
@@ -31122,7 +31575,7 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>1403</v>
+        <v>1424</v>
       </c>
       <c r="B170" s="5">
         <v>677.0</v>
@@ -31134,7 +31587,7 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>1404</v>
+        <v>1425</v>
       </c>
       <c r="B171" s="5">
         <v>678.0</v>
@@ -31146,7 +31599,7 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>1405</v>
+        <v>1426</v>
       </c>
       <c r="B172" s="5">
         <v>679.0</v>
@@ -31158,7 +31611,7 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>1406</v>
+        <v>1427</v>
       </c>
       <c r="B173" s="5">
         <v>680.0</v>
@@ -31170,7 +31623,7 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>1407</v>
+        <v>1428</v>
       </c>
       <c r="B174" s="5">
         <v>681.0</v>
@@ -31182,7 +31635,7 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>1408</v>
+        <v>1429</v>
       </c>
       <c r="B175" s="5">
         <v>682.0</v>
@@ -31194,7 +31647,7 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>1409</v>
+        <v>1430</v>
       </c>
       <c r="B176" s="5">
         <v>683.0</v>
@@ -31206,7 +31659,7 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>1410</v>
+        <v>1431</v>
       </c>
       <c r="B177" s="5">
         <v>685.0</v>
@@ -31218,7 +31671,7 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>1411</v>
+        <v>1432</v>
       </c>
       <c r="B178" s="5">
         <v>686.0</v>
@@ -31230,7 +31683,7 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>1412</v>
+        <v>1433</v>
       </c>
       <c r="B179" s="5">
         <v>687.0</v>
@@ -31242,7 +31695,7 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>1413</v>
+        <v>1434</v>
       </c>
       <c r="B180" s="5">
         <v>688.0</v>
@@ -31254,7 +31707,7 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>1414</v>
+        <v>1435</v>
       </c>
       <c r="B181" s="5">
         <v>689.0</v>
@@ -31266,7 +31719,7 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>1415</v>
+        <v>1436</v>
       </c>
       <c r="B182" s="5">
         <v>690.0</v>
@@ -31278,7 +31731,7 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>1416</v>
+        <v>1437</v>
       </c>
       <c r="B183" s="5">
         <v>691.0</v>
@@ -31290,7 +31743,7 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>1417</v>
+        <v>1438</v>
       </c>
       <c r="B184" s="5">
         <v>692.0</v>
@@ -31302,7 +31755,7 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>1418</v>
+        <v>1439</v>
       </c>
       <c r="B185" s="5">
         <v>850.0</v>
@@ -31314,7 +31767,7 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="B186" s="5">
         <v>852.0</v>
@@ -31326,7 +31779,7 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>1420</v>
+        <v>1441</v>
       </c>
       <c r="B187" s="5">
         <v>853.0</v>
@@ -31338,7 +31791,7 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>1421</v>
+        <v>1442</v>
       </c>
       <c r="B188" s="5">
         <v>855.0</v>
@@ -31350,7 +31803,7 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>1422</v>
+        <v>1443</v>
       </c>
       <c r="B189" s="5">
         <v>856.0</v>
@@ -31362,7 +31815,7 @@
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>1423</v>
+        <v>1444</v>
       </c>
       <c r="B190" s="5">
         <v>880.0</v>
@@ -31374,7 +31827,7 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>1424</v>
+        <v>1445</v>
       </c>
       <c r="B191" s="5">
         <v>886.0</v>
@@ -31386,7 +31839,7 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>1425</v>
+        <v>1446</v>
       </c>
       <c r="B192" s="5">
         <v>960.0</v>
@@ -31398,7 +31851,7 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>1426</v>
+        <v>1447</v>
       </c>
       <c r="B193" s="5">
         <v>961.0</v>
@@ -31410,7 +31863,7 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>1427</v>
+        <v>1448</v>
       </c>
       <c r="B194" s="5">
         <v>962.0</v>
@@ -31422,7 +31875,7 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>1428</v>
+        <v>1449</v>
       </c>
       <c r="B195" s="5">
         <v>963.0</v>
@@ -31434,7 +31887,7 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>1429</v>
+        <v>1450</v>
       </c>
       <c r="B196" s="5">
         <v>964.0</v>
@@ -31446,7 +31899,7 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>1430</v>
+        <v>1451</v>
       </c>
       <c r="B197" s="5">
         <v>965.0</v>
@@ -31458,7 +31911,7 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>1431</v>
+        <v>1452</v>
       </c>
       <c r="B198" s="5">
         <v>966.0</v>
@@ -31470,7 +31923,7 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>1432</v>
+        <v>1453</v>
       </c>
       <c r="B199" s="5">
         <v>967.0</v>
@@ -31482,7 +31935,7 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>1433</v>
+        <v>1454</v>
       </c>
       <c r="B200" s="5">
         <v>968.0</v>
@@ -31494,7 +31947,7 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>1434</v>
+        <v>1455</v>
       </c>
       <c r="B201" s="5">
         <v>970.0</v>
@@ -31506,7 +31959,7 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>1435</v>
+        <v>1456</v>
       </c>
       <c r="B202" s="5">
         <v>971.0</v>
@@ -31518,7 +31971,7 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>1436</v>
+        <v>1457</v>
       </c>
       <c r="B203" s="5">
         <v>972.0</v>
@@ -31530,7 +31983,7 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>1437</v>
+        <v>1458</v>
       </c>
       <c r="B204" s="5">
         <v>973.0</v>
@@ -31542,7 +31995,7 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>1438</v>
+        <v>1459</v>
       </c>
       <c r="B205" s="5">
         <v>974.0</v>
@@ -31554,7 +32007,7 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>1439</v>
+        <v>1460</v>
       </c>
       <c r="B206" s="5">
         <v>975.0</v>
@@ -31566,7 +32019,7 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>1440</v>
+        <v>1461</v>
       </c>
       <c r="B207" s="5">
         <v>976.0</v>
@@ -31578,7 +32031,7 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>1441</v>
+        <v>1462</v>
       </c>
       <c r="B208" s="5">
         <v>977.0</v>
@@ -31590,7 +32043,7 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>1442</v>
+        <v>1463</v>
       </c>
       <c r="B209" s="5">
         <v>992.0</v>
@@ -31602,7 +32055,7 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>1443</v>
+        <v>1464</v>
       </c>
       <c r="B210" s="5">
         <v>993.0</v>
@@ -31614,7 +32067,7 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>1444</v>
+        <v>1465</v>
       </c>
       <c r="B211" s="5">
         <v>994.0</v>
@@ -31626,7 +32079,7 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>1445</v>
+        <v>1466</v>
       </c>
       <c r="B212" s="5">
         <v>995.0</v>
@@ -31638,7 +32091,7 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
-        <v>1446</v>
+        <v>1467</v>
       </c>
       <c r="B213" s="5">
         <v>996.0</v>
@@ -31650,7 +32103,7 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
-        <v>1447</v>
+        <v>1468</v>
       </c>
       <c r="B214" s="5">
         <v>998.0</v>
@@ -31662,10 +32115,10 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>1448</v>
+        <v>1469</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1449</v>
+        <v>1470</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="6"/>
@@ -31674,10 +32127,10 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>1450</v>
+        <v>1471</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1451</v>
+        <v>1472</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="6"/>
@@ -31686,10 +32139,10 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>1452</v>
+        <v>1473</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1453</v>
+        <v>1474</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="6"/>
@@ -31698,10 +32151,10 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1455</v>
+        <v>1476</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="6"/>
@@ -31710,10 +32163,10 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>1456</v>
+        <v>1477</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1457</v>
+        <v>1478</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="6"/>
@@ -31722,10 +32175,10 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>1458</v>
+        <v>1479</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1459</v>
+        <v>1480</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="6"/>
@@ -31734,10 +32187,10 @@
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>1460</v>
+        <v>1481</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>1461</v>
+        <v>1482</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="6"/>
@@ -31746,10 +32199,10 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>1462</v>
+        <v>1483</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>1463</v>
+        <v>1484</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="6"/>
@@ -31758,10 +32211,10 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>1464</v>
+        <v>1485</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1465</v>
+        <v>1486</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="6"/>
@@ -31770,10 +32223,10 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>1466</v>
+        <v>1487</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1467</v>
+        <v>1488</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="6"/>
@@ -31782,10 +32235,10 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>1468</v>
+        <v>1489</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1469</v>
+        <v>1490</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="6"/>
@@ -31794,10 +32247,10 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
-        <v>1470</v>
+        <v>1491</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1471</v>
+        <v>1492</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="6"/>
@@ -31806,10 +32259,10 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
-        <v>1472</v>
+        <v>1493</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1473</v>
+        <v>1494</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="6"/>
@@ -31818,10 +32271,10 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>1474</v>
+        <v>1495</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1475</v>
+        <v>1496</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="6"/>
@@ -31830,10 +32283,10 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>1476</v>
+        <v>1497</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1477</v>
+        <v>1498</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="6"/>
@@ -31842,10 +32295,10 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>1478</v>
+        <v>1499</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1479</v>
+        <v>1500</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="6"/>
@@ -31854,10 +32307,10 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>1480</v>
+        <v>1501</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1481</v>
+        <v>1502</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="6"/>
@@ -31866,10 +32319,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>1482</v>
+        <v>1503</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1483</v>
+        <v>1504</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="6"/>
@@ -31878,10 +32331,10 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>1484</v>
+        <v>1505</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1485</v>
+        <v>1506</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="6"/>
@@ -31890,10 +32343,10 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>1486</v>
+        <v>1507</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1487</v>
+        <v>1508</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="6"/>
@@ -31902,10 +32355,10 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>1488</v>
+        <v>1509</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1489</v>
+        <v>1510</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="6"/>
@@ -31914,10 +32367,10 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>1490</v>
+        <v>1511</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1491</v>
+        <v>1512</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="6"/>
@@ -31926,10 +32379,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>1492</v>
+        <v>1513</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1493</v>
+        <v>1514</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="6"/>
@@ -31938,10 +32391,10 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>1494</v>
+        <v>1515</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1495</v>
+        <v>1516</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="6"/>
@@ -31950,10 +32403,10 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>1496</v>
+        <v>1517</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1497</v>
+        <v>1518</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="6"/>
@@ -31962,10 +32415,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>1498</v>
+        <v>1519</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1499</v>
+        <v>1520</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="6"/>

--- a/Tool/ExporterSheet.xlsx
+++ b/Tool/ExporterSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6588" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6608" uniqueCount="1527">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -3777,6 +3777,24 @@
   </si>
   <si>
     <t>https://discord.gg/nsfwspot</t>
+  </si>
+  <si>
+    <t>657663080481947648</t>
+  </si>
+  <si>
+    <t>vlad5m9</t>
+  </si>
+  <si>
+    <t>https://t.me/hamster_kombat_bot?start=kentId617264738</t>
+  </si>
+  <si>
+    <t>359097526235824138</t>
+  </si>
+  <si>
+    <t>prefranjo</t>
+  </si>
+  <si>
+    <t>https://discord.gg/dW46ndaxR</t>
   </si>
   <si>
     <t>Canada</t>
@@ -28895,6 +28913,82 @@
         <v>20</v>
       </c>
       <c r="L632" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1">
+        <v>632.0</v>
+      </c>
+      <c r="B633" s="2">
+        <v>45434.0</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H633" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J633" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K633" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L633" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1">
+        <v>633.0</v>
+      </c>
+      <c r="B634" s="2">
+        <v>45434.0</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J634" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K634" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L634" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -29530,8 +29624,10 @@
     <hyperlink r:id="rId628" ref="J630"/>
     <hyperlink r:id="rId629" ref="J631"/>
     <hyperlink r:id="rId630" ref="J632"/>
+    <hyperlink r:id="rId631" ref="J633"/>
+    <hyperlink r:id="rId632" ref="J634"/>
   </hyperlinks>
-  <drawing r:id="rId631"/>
+  <drawing r:id="rId633"/>
 </worksheet>
 </file>
 
@@ -29547,7 +29643,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="B1" s="5">
         <v>1.0</v>
@@ -29559,7 +29655,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
@@ -29571,7 +29667,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="B3" s="5">
         <v>7.0</v>
@@ -29583,7 +29679,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="B4" s="5">
         <v>7.0</v>
@@ -29595,7 +29691,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="B5" s="5">
         <v>20.0</v>
@@ -29607,7 +29703,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="B6" s="5">
         <v>27.0</v>
@@ -29619,7 +29715,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="B7" s="5">
         <v>30.0</v>
@@ -29631,7 +29727,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="B8" s="5">
         <v>31.0</v>
@@ -29643,7 +29739,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="B9" s="5">
         <v>32.0</v>
@@ -29655,7 +29751,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="B10" s="5">
         <v>33.0</v>
@@ -29667,7 +29763,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="B11" s="5">
         <v>34.0</v>
@@ -29679,7 +29775,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="B12" s="5">
         <v>36.0</v>
@@ -29691,7 +29787,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="B13" s="5">
         <v>39.0</v>
@@ -29703,7 +29799,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="B14" s="5">
         <v>40.0</v>
@@ -29715,7 +29811,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="B15" s="5">
         <v>41.0</v>
@@ -29727,7 +29823,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="B16" s="5">
         <v>43.0</v>
@@ -29739,7 +29835,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="B17" s="5">
         <v>44.0</v>
@@ -29751,7 +29847,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="B18" s="5">
         <v>45.0</v>
@@ -29763,7 +29859,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="B19" s="5">
         <v>46.0</v>
@@ -29775,7 +29871,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="B20" s="5">
         <v>47.0</v>
@@ -29787,7 +29883,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="B21" s="5">
         <v>47.0</v>
@@ -29799,7 +29895,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="B22" s="5">
         <v>48.0</v>
@@ -29811,7 +29907,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="B23" s="5">
         <v>49.0</v>
@@ -29823,7 +29919,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="B24" s="5">
         <v>51.0</v>
@@ -29835,7 +29931,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="B25" s="5">
         <v>52.0</v>
@@ -29847,7 +29943,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="B26" s="5">
         <v>53.0</v>
@@ -29859,7 +29955,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="B27" s="5">
         <v>54.0</v>
@@ -29871,7 +29967,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="B28" s="5">
         <v>55.0</v>
@@ -29883,7 +29979,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="B29" s="5">
         <v>56.0</v>
@@ -29895,7 +29991,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="B30" s="5">
         <v>57.0</v>
@@ -29907,7 +30003,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="B31" s="5">
         <v>58.0</v>
@@ -29919,7 +30015,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="B32" s="5">
         <v>60.0</v>
@@ -29931,7 +30027,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="B33" s="5">
         <v>61.0</v>
@@ -29943,7 +30039,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="B34" s="5">
         <v>61.0</v>
@@ -29955,7 +30051,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="B35" s="5">
         <v>61.0</v>
@@ -29967,7 +30063,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="B36" s="5">
         <v>62.0</v>
@@ -29979,7 +30075,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="B37" s="5">
         <v>63.0</v>
@@ -29991,7 +30087,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="B38" s="5">
         <v>64.0</v>
@@ -30003,7 +30099,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="B39" s="5">
         <v>64.0</v>
@@ -30015,7 +30111,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="B40" s="5">
         <v>65.0</v>
@@ -30027,7 +30123,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="B41" s="5">
         <v>66.0</v>
@@ -30039,7 +30135,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="B42" s="5">
         <v>81.0</v>
@@ -30051,7 +30147,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="B43" s="5">
         <v>82.0</v>
@@ -30063,7 +30159,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="B44" s="5">
         <v>84.0</v>
@@ -30075,7 +30171,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="B45" s="5">
         <v>86.0</v>
@@ -30087,7 +30183,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="B46" s="5">
         <v>90.0</v>
@@ -30099,7 +30195,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="B47" s="5">
         <v>91.0</v>
@@ -30111,7 +30207,7 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="B48" s="5">
         <v>92.0</v>
@@ -30123,7 +30219,7 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="B49" s="5">
         <v>93.0</v>
@@ -30135,7 +30231,7 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="B50" s="5">
         <v>94.0</v>
@@ -30147,7 +30243,7 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="B51" s="5">
         <v>95.0</v>
@@ -30159,7 +30255,7 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="B52" s="5">
         <v>98.0</v>
@@ -30171,7 +30267,7 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="B53" s="5">
         <v>211.0</v>
@@ -30183,7 +30279,7 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="B54" s="5">
         <v>212.0</v>
@@ -30195,7 +30291,7 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="B55" s="5">
         <v>212.0</v>
@@ -30207,7 +30303,7 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="B56" s="5">
         <v>213.0</v>
@@ -30219,7 +30315,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="B57" s="5">
         <v>216.0</v>
@@ -30231,7 +30327,7 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="B58" s="5">
         <v>218.0</v>
@@ -30243,7 +30339,7 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="B59" s="5">
         <v>220.0</v>
@@ -30255,7 +30351,7 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="B60" s="5">
         <v>221.0</v>
@@ -30267,7 +30363,7 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="B61" s="5">
         <v>222.0</v>
@@ -30279,7 +30375,7 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="B62" s="5">
         <v>223.0</v>
@@ -30291,7 +30387,7 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="B63" s="5">
         <v>224.0</v>
@@ -30303,7 +30399,7 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="B64" s="5">
         <v>225.0</v>
@@ -30315,7 +30411,7 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="B65" s="5">
         <v>226.0</v>
@@ -30327,7 +30423,7 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="B66" s="5">
         <v>227.0</v>
@@ -30339,7 +30435,7 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="B67" s="5">
         <v>228.0</v>
@@ -30351,7 +30447,7 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="B68" s="5">
         <v>229.0</v>
@@ -30363,7 +30459,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="B69" s="5">
         <v>230.0</v>
@@ -30375,7 +30471,7 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="B70" s="5">
         <v>231.0</v>
@@ -30387,7 +30483,7 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="B71" s="5">
         <v>232.0</v>
@@ -30399,7 +30495,7 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="B72" s="5">
         <v>233.0</v>
@@ -30411,7 +30507,7 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="B73" s="5">
         <v>234.0</v>
@@ -30423,7 +30519,7 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="B74" s="5">
         <v>235.0</v>
@@ -30435,7 +30531,7 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="B75" s="5">
         <v>236.0</v>
@@ -30447,7 +30543,7 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="B76" s="5">
         <v>237.0</v>
@@ -30459,7 +30555,7 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="B77" s="5">
         <v>238.0</v>
@@ -30471,7 +30567,7 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="B78" s="5">
         <v>239.0</v>
@@ -30483,7 +30579,7 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="B79" s="5">
         <v>240.0</v>
@@ -30495,7 +30591,7 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="B80" s="5">
         <v>241.0</v>
@@ -30507,7 +30603,7 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="B81" s="5">
         <v>242.0</v>
@@ -30519,7 +30615,7 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="B82" s="5">
         <v>243.0</v>
@@ -30531,7 +30627,7 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="B83" s="5">
         <v>244.0</v>
@@ -30543,7 +30639,7 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="B84" s="5">
         <v>245.0</v>
@@ -30555,7 +30651,7 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="B85" s="5">
         <v>246.0</v>
@@ -30567,7 +30663,7 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="B86" s="5">
         <v>248.0</v>
@@ -30579,7 +30675,7 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="B87" s="5">
         <v>249.0</v>
@@ -30591,7 +30687,7 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="B88" s="5">
         <v>250.0</v>
@@ -30603,7 +30699,7 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="B89" s="5">
         <v>251.0</v>
@@ -30615,7 +30711,7 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
       <c r="B90" s="5">
         <v>252.0</v>
@@ -30627,7 +30723,7 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="B91" s="5">
         <v>253.0</v>
@@ -30639,7 +30735,7 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="B92" s="5">
         <v>254.0</v>
@@ -30651,7 +30747,7 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="B93" s="5">
         <v>255.0</v>
@@ -30663,7 +30759,7 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="B94" s="5">
         <v>256.0</v>
@@ -30675,7 +30771,7 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="B95" s="5">
         <v>257.0</v>
@@ -30687,7 +30783,7 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="B96" s="5">
         <v>258.0</v>
@@ -30699,7 +30795,7 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
       <c r="B97" s="5">
         <v>260.0</v>
@@ -30711,7 +30807,7 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="B98" s="5">
         <v>261.0</v>
@@ -30723,7 +30819,7 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="B99" s="5">
         <v>262.0</v>
@@ -30735,7 +30831,7 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="B100" s="5">
         <v>262.0</v>
@@ -30747,7 +30843,7 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="B101" s="5">
         <v>263.0</v>
@@ -30759,7 +30855,7 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
       <c r="B102" s="5">
         <v>264.0</v>
@@ -30771,7 +30867,7 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
       <c r="B103" s="5">
         <v>265.0</v>
@@ -30783,7 +30879,7 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="B104" s="5">
         <v>266.0</v>
@@ -30795,7 +30891,7 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="B105" s="5">
         <v>267.0</v>
@@ -30807,7 +30903,7 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="B106" s="5">
         <v>268.0</v>
@@ -30819,7 +30915,7 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="B107" s="5">
         <v>269.0</v>
@@ -30831,7 +30927,7 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="B108" s="5">
         <v>290.0</v>
@@ -30843,7 +30939,7 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
       <c r="B109" s="5">
         <v>291.0</v>
@@ -30855,7 +30951,7 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="B110" s="5">
         <v>297.0</v>
@@ -30867,7 +30963,7 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="B111" s="5">
         <v>298.0</v>
@@ -30879,7 +30975,7 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="B112" s="5">
         <v>299.0</v>
@@ -30891,7 +30987,7 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
       <c r="B113" s="5">
         <v>350.0</v>
@@ -30903,7 +30999,7 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="B114" s="5">
         <v>351.0</v>
@@ -30915,7 +31011,7 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="B115" s="5">
         <v>352.0</v>
@@ -30927,7 +31023,7 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="B116" s="5">
         <v>353.0</v>
@@ -30939,7 +31035,7 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="B117" s="5">
         <v>354.0</v>
@@ -30951,7 +31047,7 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="B118" s="5">
         <v>355.0</v>
@@ -30963,7 +31059,7 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="B119" s="5">
         <v>356.0</v>
@@ -30975,7 +31071,7 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="B120" s="5">
         <v>357.0</v>
@@ -30987,7 +31083,7 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="B121" s="5">
         <v>358.0</v>
@@ -30999,7 +31095,7 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="B122" s="5">
         <v>359.0</v>
@@ -31011,7 +31107,7 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="B123" s="5">
         <v>370.0</v>
@@ -31023,7 +31119,7 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="B124" s="5">
         <v>371.0</v>
@@ -31035,7 +31131,7 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="B125" s="5">
         <v>372.0</v>
@@ -31047,7 +31143,7 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="B126" s="5">
         <v>373.0</v>
@@ -31059,7 +31155,7 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="B127" s="5">
         <v>374.0</v>
@@ -31071,7 +31167,7 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="B128" s="5">
         <v>375.0</v>
@@ -31083,7 +31179,7 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="B129" s="5">
         <v>376.0</v>
@@ -31095,7 +31191,7 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="B130" s="5">
         <v>377.0</v>
@@ -31107,7 +31203,7 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="B131" s="5">
         <v>378.0</v>
@@ -31119,7 +31215,7 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="B132" s="5">
         <v>379.0</v>
@@ -31131,7 +31227,7 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="B133" s="5">
         <v>380.0</v>
@@ -31143,7 +31239,7 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="B134" s="5">
         <v>381.0</v>
@@ -31155,7 +31251,7 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="B135" s="5">
         <v>382.0</v>
@@ -31167,7 +31263,7 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="B136" s="5">
         <v>383.0</v>
@@ -31179,7 +31275,7 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="B137" s="5">
         <v>385.0</v>
@@ -31191,7 +31287,7 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="B138" s="5">
         <v>386.0</v>
@@ -31203,7 +31299,7 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="B139" s="5">
         <v>387.0</v>
@@ -31215,7 +31311,7 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
       <c r="B140" s="5">
         <v>389.0</v>
@@ -31227,7 +31323,7 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="B141" s="5">
         <v>420.0</v>
@@ -31239,7 +31335,7 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="B142" s="5">
         <v>421.0</v>
@@ -31251,7 +31347,7 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="B143" s="5">
         <v>423.0</v>
@@ -31263,7 +31359,7 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="B144" s="5">
         <v>500.0</v>
@@ -31275,7 +31371,7 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="B145" s="5">
         <v>501.0</v>
@@ -31287,7 +31383,7 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="B146" s="5">
         <v>502.0</v>
@@ -31299,7 +31395,7 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="B147" s="5">
         <v>503.0</v>
@@ -31311,7 +31407,7 @@
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="B148" s="5">
         <v>504.0</v>
@@ -31323,7 +31419,7 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="B149" s="5">
         <v>505.0</v>
@@ -31335,7 +31431,7 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="B150" s="5">
         <v>506.0</v>
@@ -31347,7 +31443,7 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="B151" s="5">
         <v>507.0</v>
@@ -31359,7 +31455,7 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="B152" s="5">
         <v>508.0</v>
@@ -31371,7 +31467,7 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="B153" s="5">
         <v>509.0</v>
@@ -31383,7 +31479,7 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="B154" s="5">
         <v>590.0</v>
@@ -31395,7 +31491,7 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="B155" s="5">
         <v>590.0</v>
@@ -31407,7 +31503,7 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="B156" s="5">
         <v>591.0</v>
@@ -31419,7 +31515,7 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="B157" s="5">
         <v>592.0</v>
@@ -31431,7 +31527,7 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
       <c r="B158" s="5">
         <v>593.0</v>
@@ -31443,7 +31539,7 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>1413</v>
+        <v>1419</v>
       </c>
       <c r="B159" s="5">
         <v>595.0</v>
@@ -31455,7 +31551,7 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>1414</v>
+        <v>1420</v>
       </c>
       <c r="B160" s="5">
         <v>597.0</v>
@@ -31467,7 +31563,7 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="B161" s="5">
         <v>598.0</v>
@@ -31479,7 +31575,7 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
       <c r="B162" s="5">
         <v>599.0</v>
@@ -31491,7 +31587,7 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="B163" s="5">
         <v>599.0</v>
@@ -31503,7 +31599,7 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="B164" s="5">
         <v>670.0</v>
@@ -31515,7 +31611,7 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="B165" s="5">
         <v>672.0</v>
@@ -31527,7 +31623,7 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="B166" s="5">
         <v>673.0</v>
@@ -31539,7 +31635,7 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>1421</v>
+        <v>1427</v>
       </c>
       <c r="B167" s="5">
         <v>674.0</v>
@@ -31551,7 +31647,7 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>1422</v>
+        <v>1428</v>
       </c>
       <c r="B168" s="5">
         <v>675.0</v>
@@ -31563,7 +31659,7 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
       <c r="B169" s="5">
         <v>676.0</v>
@@ -31575,7 +31671,7 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>1424</v>
+        <v>1430</v>
       </c>
       <c r="B170" s="5">
         <v>677.0</v>
@@ -31587,7 +31683,7 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
       <c r="B171" s="5">
         <v>678.0</v>
@@ -31599,7 +31695,7 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
       <c r="B172" s="5">
         <v>679.0</v>
@@ -31611,7 +31707,7 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>1427</v>
+        <v>1433</v>
       </c>
       <c r="B173" s="5">
         <v>680.0</v>
@@ -31623,7 +31719,7 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>1428</v>
+        <v>1434</v>
       </c>
       <c r="B174" s="5">
         <v>681.0</v>
@@ -31635,7 +31731,7 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>1429</v>
+        <v>1435</v>
       </c>
       <c r="B175" s="5">
         <v>682.0</v>
@@ -31647,7 +31743,7 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>1430</v>
+        <v>1436</v>
       </c>
       <c r="B176" s="5">
         <v>683.0</v>
@@ -31659,7 +31755,7 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>1431</v>
+        <v>1437</v>
       </c>
       <c r="B177" s="5">
         <v>685.0</v>
@@ -31671,7 +31767,7 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>1432</v>
+        <v>1438</v>
       </c>
       <c r="B178" s="5">
         <v>686.0</v>
@@ -31683,7 +31779,7 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>1433</v>
+        <v>1439</v>
       </c>
       <c r="B179" s="5">
         <v>687.0</v>
@@ -31695,7 +31791,7 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="B180" s="5">
         <v>688.0</v>
@@ -31707,7 +31803,7 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="B181" s="5">
         <v>689.0</v>
@@ -31719,7 +31815,7 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>1436</v>
+        <v>1442</v>
       </c>
       <c r="B182" s="5">
         <v>690.0</v>
@@ -31731,7 +31827,7 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="B183" s="5">
         <v>691.0</v>
@@ -31743,7 +31839,7 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
       <c r="B184" s="5">
         <v>692.0</v>
@@ -31755,7 +31851,7 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="B185" s="5">
         <v>850.0</v>
@@ -31767,7 +31863,7 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="B186" s="5">
         <v>852.0</v>
@@ -31779,7 +31875,7 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="B187" s="5">
         <v>853.0</v>
@@ -31791,7 +31887,7 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="B188" s="5">
         <v>855.0</v>
@@ -31803,7 +31899,7 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="B189" s="5">
         <v>856.0</v>
@@ -31815,7 +31911,7 @@
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="B190" s="5">
         <v>880.0</v>
@@ -31827,7 +31923,7 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="B191" s="5">
         <v>886.0</v>
@@ -31839,7 +31935,7 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
       <c r="B192" s="5">
         <v>960.0</v>
@@ -31851,7 +31947,7 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="B193" s="5">
         <v>961.0</v>
@@ -31863,7 +31959,7 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="B194" s="5">
         <v>962.0</v>
@@ -31875,7 +31971,7 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="B195" s="5">
         <v>963.0</v>
@@ -31887,7 +31983,7 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="B196" s="5">
         <v>964.0</v>
@@ -31899,7 +31995,7 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="B197" s="5">
         <v>965.0</v>
@@ -31911,7 +32007,7 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
       <c r="B198" s="5">
         <v>966.0</v>
@@ -31923,7 +32019,7 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="B199" s="5">
         <v>967.0</v>
@@ -31935,7 +32031,7 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
       <c r="B200" s="5">
         <v>968.0</v>
@@ -31947,7 +32043,7 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="B201" s="5">
         <v>970.0</v>
@@ -31959,7 +32055,7 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="B202" s="5">
         <v>971.0</v>
@@ -31971,7 +32067,7 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="B203" s="5">
         <v>972.0</v>
@@ -31983,7 +32079,7 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="B204" s="5">
         <v>973.0</v>
@@ -31995,7 +32091,7 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>1459</v>
+        <v>1465</v>
       </c>
       <c r="B205" s="5">
         <v>974.0</v>
@@ -32007,7 +32103,7 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="B206" s="5">
         <v>975.0</v>
@@ -32019,7 +32115,7 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="B207" s="5">
         <v>976.0</v>
@@ -32031,7 +32127,7 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
       <c r="B208" s="5">
         <v>977.0</v>
@@ -32043,7 +32139,7 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>1463</v>
+        <v>1469</v>
       </c>
       <c r="B209" s="5">
         <v>992.0</v>
@@ -32055,7 +32151,7 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B210" s="5">
         <v>993.0</v>
@@ -32067,7 +32163,7 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>1465</v>
+        <v>1471</v>
       </c>
       <c r="B211" s="5">
         <v>994.0</v>
@@ -32079,7 +32175,7 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>1466</v>
+        <v>1472</v>
       </c>
       <c r="B212" s="5">
         <v>995.0</v>
@@ -32091,7 +32187,7 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="B213" s="5">
         <v>996.0</v>
@@ -32103,7 +32199,7 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
       <c r="B214" s="5">
         <v>998.0</v>
@@ -32115,10 +32211,10 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="6"/>
@@ -32127,10 +32223,10 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>1471</v>
+        <v>1477</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1472</v>
+        <v>1478</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="6"/>
@@ -32139,10 +32235,10 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1474</v>
+        <v>1480</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="6"/>
@@ -32151,10 +32247,10 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>1475</v>
+        <v>1481</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="6"/>
@@ -32163,10 +32259,10 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="6"/>
@@ -32175,10 +32271,10 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="6"/>
@@ -32187,10 +32283,10 @@
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>1482</v>
+        <v>1488</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="6"/>
@@ -32199,10 +32295,10 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="6"/>
@@ -32211,10 +32307,10 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="6"/>
@@ -32223,10 +32319,10 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>1487</v>
+        <v>1493</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="6"/>
@@ -32235,10 +32331,10 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1490</v>
+        <v>1496</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="6"/>
@@ -32247,10 +32343,10 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1492</v>
+        <v>1498</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="6"/>
@@ -32259,10 +32355,10 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="6"/>
@@ -32271,10 +32367,10 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1496</v>
+        <v>1502</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="6"/>
@@ -32283,10 +32379,10 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="6"/>
@@ -32295,10 +32391,10 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1500</v>
+        <v>1506</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="6"/>
@@ -32307,10 +32403,10 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="6"/>
@@ -32319,10 +32415,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="6"/>
@@ -32331,10 +32427,10 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="6"/>
@@ -32343,10 +32439,10 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>1507</v>
+        <v>1513</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="6"/>
@@ -32355,10 +32451,10 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="6"/>
@@ -32367,10 +32463,10 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="6"/>
@@ -32379,10 +32475,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1514</v>
+        <v>1520</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="6"/>
@@ -32391,10 +32487,10 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>1515</v>
+        <v>1521</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="6"/>
@@ -32403,10 +32499,10 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="6"/>
@@ -32415,10 +32511,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>1519</v>
+        <v>1525</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="6"/>

--- a/Tool/ExporterSheet.xlsx
+++ b/Tool/ExporterSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6608" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6618" uniqueCount="1527">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -28989,6 +28989,44 @@
         <v>20</v>
       </c>
       <c r="L634" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1">
+        <v>634.0</v>
+      </c>
+      <c r="B635" s="2">
+        <v>45434.0</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H635" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J635" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K635" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L635" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -29626,8 +29664,9 @@
     <hyperlink r:id="rId630" ref="J632"/>
     <hyperlink r:id="rId631" ref="J633"/>
     <hyperlink r:id="rId632" ref="J634"/>
+    <hyperlink r:id="rId633" ref="J635"/>
   </hyperlinks>
-  <drawing r:id="rId633"/>
+  <drawing r:id="rId634"/>
 </worksheet>
 </file>
 

--- a/Tool/ExporterSheet.xlsx
+++ b/Tool/ExporterSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6618" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6688" uniqueCount="1546">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -3795,6 +3795,63 @@
   </si>
   <si>
     <t>https://discord.gg/dW46ndaxR</t>
+  </si>
+  <si>
+    <t>956868131849134092</t>
+  </si>
+  <si>
+    <t>rnyeloh</t>
+  </si>
+  <si>
+    <t>t.me/BlumCryptoBot/app?startapp=ref_GHnnNgvOiU</t>
+  </si>
+  <si>
+    <t>823608825063407657</t>
+  </si>
+  <si>
+    <t>sb2u</t>
+  </si>
+  <si>
+    <t>942026460988846101</t>
+  </si>
+  <si>
+    <t>misanguyen</t>
+  </si>
+  <si>
+    <t>https://bit.ly/4dSoLrY</t>
+  </si>
+  <si>
+    <t>1237671235131936811</t>
+  </si>
+  <si>
+    <t>tranquil_unicorn_43259</t>
+  </si>
+  <si>
+    <t>https://openseaproclaims34.vercel.app/</t>
+  </si>
+  <si>
+    <t>927220433646944267</t>
+  </si>
+  <si>
+    <t>silvercloud2352</t>
+  </si>
+  <si>
+    <t>https://sc.link/82tr4</t>
+  </si>
+  <si>
+    <t>398137036017762304</t>
+  </si>
+  <si>
+    <t>anonymousgamer5293</t>
+  </si>
+  <si>
+    <t>655293104013836298</t>
+  </si>
+  <si>
+    <t>sprmer</t>
+  </si>
+  <si>
+    <t>https://u.to/8tayIA</t>
   </si>
   <si>
     <t>Canada</t>
@@ -29027,6 +29084,272 @@
         <v>30</v>
       </c>
       <c r="L635" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1">
+        <v>635.0</v>
+      </c>
+      <c r="B636" s="2">
+        <v>45435.0</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H636" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I636" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J636" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K636" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L636" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1">
+        <v>636.0</v>
+      </c>
+      <c r="B637" s="2">
+        <v>45436.0</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H637" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I637" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J637" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K637" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L637" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1">
+        <v>637.0</v>
+      </c>
+      <c r="B638" s="2">
+        <v>45436.0</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H638" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J638" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K638" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L638" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1">
+        <v>638.0</v>
+      </c>
+      <c r="B639" s="2">
+        <v>45436.0</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H639" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I639" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J639" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K639" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L639" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1">
+        <v>639.0</v>
+      </c>
+      <c r="B640" s="2">
+        <v>45436.0</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H640" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J640" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K640" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L640" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1">
+        <v>640.0</v>
+      </c>
+      <c r="B641" s="2">
+        <v>45436.0</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H641" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J641" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K641" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L641" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1">
+        <v>641.0</v>
+      </c>
+      <c r="B642" s="2">
+        <v>45437.0</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H642" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I642" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J642" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K642" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L642" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -29665,8 +29988,15 @@
     <hyperlink r:id="rId631" ref="J633"/>
     <hyperlink r:id="rId632" ref="J634"/>
     <hyperlink r:id="rId633" ref="J635"/>
+    <hyperlink r:id="rId634" ref="J636"/>
+    <hyperlink r:id="rId635" ref="J637"/>
+    <hyperlink r:id="rId636" ref="J638"/>
+    <hyperlink r:id="rId637" ref="J639"/>
+    <hyperlink r:id="rId638" ref="J640"/>
+    <hyperlink r:id="rId639" ref="J641"/>
+    <hyperlink r:id="rId640" ref="J642"/>
   </hyperlinks>
-  <drawing r:id="rId634"/>
+  <drawing r:id="rId641"/>
 </worksheet>
 </file>
 
@@ -29682,7 +30012,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1261</v>
+        <v>1280</v>
       </c>
       <c r="B1" s="5">
         <v>1.0</v>
@@ -29694,7 +30024,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1262</v>
+        <v>1281</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
@@ -29706,7 +30036,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1263</v>
+        <v>1282</v>
       </c>
       <c r="B3" s="5">
         <v>7.0</v>
@@ -29718,7 +30048,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1264</v>
+        <v>1283</v>
       </c>
       <c r="B4" s="5">
         <v>7.0</v>
@@ -29730,7 +30060,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1265</v>
+        <v>1284</v>
       </c>
       <c r="B5" s="5">
         <v>20.0</v>
@@ -29742,7 +30072,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1266</v>
+        <v>1285</v>
       </c>
       <c r="B6" s="5">
         <v>27.0</v>
@@ -29754,7 +30084,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1267</v>
+        <v>1286</v>
       </c>
       <c r="B7" s="5">
         <v>30.0</v>
@@ -29766,7 +30096,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1268</v>
+        <v>1287</v>
       </c>
       <c r="B8" s="5">
         <v>31.0</v>
@@ -29778,7 +30108,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1269</v>
+        <v>1288</v>
       </c>
       <c r="B9" s="5">
         <v>32.0</v>
@@ -29790,7 +30120,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1270</v>
+        <v>1289</v>
       </c>
       <c r="B10" s="5">
         <v>33.0</v>
@@ -29802,7 +30132,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1271</v>
+        <v>1290</v>
       </c>
       <c r="B11" s="5">
         <v>34.0</v>
@@ -29814,7 +30144,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>1272</v>
+        <v>1291</v>
       </c>
       <c r="B12" s="5">
         <v>36.0</v>
@@ -29826,7 +30156,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>1273</v>
+        <v>1292</v>
       </c>
       <c r="B13" s="5">
         <v>39.0</v>
@@ -29838,7 +30168,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>1274</v>
+        <v>1293</v>
       </c>
       <c r="B14" s="5">
         <v>40.0</v>
@@ -29850,7 +30180,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>1275</v>
+        <v>1294</v>
       </c>
       <c r="B15" s="5">
         <v>41.0</v>
@@ -29862,7 +30192,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>1276</v>
+        <v>1295</v>
       </c>
       <c r="B16" s="5">
         <v>43.0</v>
@@ -29874,7 +30204,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>1277</v>
+        <v>1296</v>
       </c>
       <c r="B17" s="5">
         <v>44.0</v>
@@ -29886,7 +30216,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>1278</v>
+        <v>1297</v>
       </c>
       <c r="B18" s="5">
         <v>45.0</v>
@@ -29898,7 +30228,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>1279</v>
+        <v>1298</v>
       </c>
       <c r="B19" s="5">
         <v>46.0</v>
@@ -29910,7 +30240,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>1280</v>
+        <v>1299</v>
       </c>
       <c r="B20" s="5">
         <v>47.0</v>
@@ -29922,7 +30252,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>1281</v>
+        <v>1300</v>
       </c>
       <c r="B21" s="5">
         <v>47.0</v>
@@ -29934,7 +30264,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>1282</v>
+        <v>1301</v>
       </c>
       <c r="B22" s="5">
         <v>48.0</v>
@@ -29946,7 +30276,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>1283</v>
+        <v>1302</v>
       </c>
       <c r="B23" s="5">
         <v>49.0</v>
@@ -29958,7 +30288,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>1284</v>
+        <v>1303</v>
       </c>
       <c r="B24" s="5">
         <v>51.0</v>
@@ -29970,7 +30300,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>1285</v>
+        <v>1304</v>
       </c>
       <c r="B25" s="5">
         <v>52.0</v>
@@ -29982,7 +30312,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>1286</v>
+        <v>1305</v>
       </c>
       <c r="B26" s="5">
         <v>53.0</v>
@@ -29994,7 +30324,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>1287</v>
+        <v>1306</v>
       </c>
       <c r="B27" s="5">
         <v>54.0</v>
@@ -30006,7 +30336,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>1288</v>
+        <v>1307</v>
       </c>
       <c r="B28" s="5">
         <v>55.0</v>
@@ -30018,7 +30348,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>1289</v>
+        <v>1308</v>
       </c>
       <c r="B29" s="5">
         <v>56.0</v>
@@ -30030,7 +30360,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>1290</v>
+        <v>1309</v>
       </c>
       <c r="B30" s="5">
         <v>57.0</v>
@@ -30042,7 +30372,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>1291</v>
+        <v>1310</v>
       </c>
       <c r="B31" s="5">
         <v>58.0</v>
@@ -30054,7 +30384,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>1292</v>
+        <v>1311</v>
       </c>
       <c r="B32" s="5">
         <v>60.0</v>
@@ -30066,7 +30396,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>1293</v>
+        <v>1312</v>
       </c>
       <c r="B33" s="5">
         <v>61.0</v>
@@ -30078,7 +30408,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>1294</v>
+        <v>1313</v>
       </c>
       <c r="B34" s="5">
         <v>61.0</v>
@@ -30090,7 +30420,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>1295</v>
+        <v>1314</v>
       </c>
       <c r="B35" s="5">
         <v>61.0</v>
@@ -30102,7 +30432,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>1296</v>
+        <v>1315</v>
       </c>
       <c r="B36" s="5">
         <v>62.0</v>
@@ -30114,7 +30444,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>1297</v>
+        <v>1316</v>
       </c>
       <c r="B37" s="5">
         <v>63.0</v>
@@ -30126,7 +30456,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>1298</v>
+        <v>1317</v>
       </c>
       <c r="B38" s="5">
         <v>64.0</v>
@@ -30138,7 +30468,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>1299</v>
+        <v>1318</v>
       </c>
       <c r="B39" s="5">
         <v>64.0</v>
@@ -30150,7 +30480,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>1300</v>
+        <v>1319</v>
       </c>
       <c r="B40" s="5">
         <v>65.0</v>
@@ -30162,7 +30492,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>1301</v>
+        <v>1320</v>
       </c>
       <c r="B41" s="5">
         <v>66.0</v>
@@ -30174,7 +30504,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>1302</v>
+        <v>1321</v>
       </c>
       <c r="B42" s="5">
         <v>81.0</v>
@@ -30186,7 +30516,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>1303</v>
+        <v>1322</v>
       </c>
       <c r="B43" s="5">
         <v>82.0</v>
@@ -30198,7 +30528,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>1304</v>
+        <v>1323</v>
       </c>
       <c r="B44" s="5">
         <v>84.0</v>
@@ -30210,7 +30540,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>1305</v>
+        <v>1324</v>
       </c>
       <c r="B45" s="5">
         <v>86.0</v>
@@ -30222,7 +30552,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>1306</v>
+        <v>1325</v>
       </c>
       <c r="B46" s="5">
         <v>90.0</v>
@@ -30234,7 +30564,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>1307</v>
+        <v>1326</v>
       </c>
       <c r="B47" s="5">
         <v>91.0</v>
@@ -30246,7 +30576,7 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>1308</v>
+        <v>1327</v>
       </c>
       <c r="B48" s="5">
         <v>92.0</v>
@@ -30258,7 +30588,7 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>1309</v>
+        <v>1328</v>
       </c>
       <c r="B49" s="5">
         <v>93.0</v>
@@ -30270,7 +30600,7 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>1310</v>
+        <v>1329</v>
       </c>
       <c r="B50" s="5">
         <v>94.0</v>
@@ -30282,7 +30612,7 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>1311</v>
+        <v>1330</v>
       </c>
       <c r="B51" s="5">
         <v>95.0</v>
@@ -30294,7 +30624,7 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>1312</v>
+        <v>1331</v>
       </c>
       <c r="B52" s="5">
         <v>98.0</v>
@@ -30306,7 +30636,7 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>1313</v>
+        <v>1332</v>
       </c>
       <c r="B53" s="5">
         <v>211.0</v>
@@ -30318,7 +30648,7 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>1314</v>
+        <v>1333</v>
       </c>
       <c r="B54" s="5">
         <v>212.0</v>
@@ -30330,7 +30660,7 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>1315</v>
+        <v>1334</v>
       </c>
       <c r="B55" s="5">
         <v>212.0</v>
@@ -30342,7 +30672,7 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>1316</v>
+        <v>1335</v>
       </c>
       <c r="B56" s="5">
         <v>213.0</v>
@@ -30354,7 +30684,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>1317</v>
+        <v>1336</v>
       </c>
       <c r="B57" s="5">
         <v>216.0</v>
@@ -30366,7 +30696,7 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>1318</v>
+        <v>1337</v>
       </c>
       <c r="B58" s="5">
         <v>218.0</v>
@@ -30378,7 +30708,7 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>1319</v>
+        <v>1338</v>
       </c>
       <c r="B59" s="5">
         <v>220.0</v>
@@ -30390,7 +30720,7 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>1320</v>
+        <v>1339</v>
       </c>
       <c r="B60" s="5">
         <v>221.0</v>
@@ -30402,7 +30732,7 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>1321</v>
+        <v>1340</v>
       </c>
       <c r="B61" s="5">
         <v>222.0</v>
@@ -30414,7 +30744,7 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>1322</v>
+        <v>1341</v>
       </c>
       <c r="B62" s="5">
         <v>223.0</v>
@@ -30426,7 +30756,7 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>1323</v>
+        <v>1342</v>
       </c>
       <c r="B63" s="5">
         <v>224.0</v>
@@ -30438,7 +30768,7 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>1324</v>
+        <v>1343</v>
       </c>
       <c r="B64" s="5">
         <v>225.0</v>
@@ -30450,7 +30780,7 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>1325</v>
+        <v>1344</v>
       </c>
       <c r="B65" s="5">
         <v>226.0</v>
@@ -30462,7 +30792,7 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>1326</v>
+        <v>1345</v>
       </c>
       <c r="B66" s="5">
         <v>227.0</v>
@@ -30474,7 +30804,7 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>1327</v>
+        <v>1346</v>
       </c>
       <c r="B67" s="5">
         <v>228.0</v>
@@ -30486,7 +30816,7 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>1328</v>
+        <v>1347</v>
       </c>
       <c r="B68" s="5">
         <v>229.0</v>
@@ -30498,7 +30828,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>1329</v>
+        <v>1348</v>
       </c>
       <c r="B69" s="5">
         <v>230.0</v>
@@ -30510,7 +30840,7 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>1330</v>
+        <v>1349</v>
       </c>
       <c r="B70" s="5">
         <v>231.0</v>
@@ -30522,7 +30852,7 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>1331</v>
+        <v>1350</v>
       </c>
       <c r="B71" s="5">
         <v>232.0</v>
@@ -30534,7 +30864,7 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>1332</v>
+        <v>1351</v>
       </c>
       <c r="B72" s="5">
         <v>233.0</v>
@@ -30546,7 +30876,7 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>1333</v>
+        <v>1352</v>
       </c>
       <c r="B73" s="5">
         <v>234.0</v>
@@ -30558,7 +30888,7 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>1334</v>
+        <v>1353</v>
       </c>
       <c r="B74" s="5">
         <v>235.0</v>
@@ -30570,7 +30900,7 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>1335</v>
+        <v>1354</v>
       </c>
       <c r="B75" s="5">
         <v>236.0</v>
@@ -30582,7 +30912,7 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>1336</v>
+        <v>1355</v>
       </c>
       <c r="B76" s="5">
         <v>237.0</v>
@@ -30594,7 +30924,7 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>1337</v>
+        <v>1356</v>
       </c>
       <c r="B77" s="5">
         <v>238.0</v>
@@ -30606,7 +30936,7 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>1338</v>
+        <v>1357</v>
       </c>
       <c r="B78" s="5">
         <v>239.0</v>
@@ -30618,7 +30948,7 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>1339</v>
+        <v>1358</v>
       </c>
       <c r="B79" s="5">
         <v>240.0</v>
@@ -30630,7 +30960,7 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>1340</v>
+        <v>1359</v>
       </c>
       <c r="B80" s="5">
         <v>241.0</v>
@@ -30642,7 +30972,7 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
       <c r="B81" s="5">
         <v>242.0</v>
@@ -30654,7 +30984,7 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>1342</v>
+        <v>1361</v>
       </c>
       <c r="B82" s="5">
         <v>243.0</v>
@@ -30666,7 +30996,7 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>1343</v>
+        <v>1362</v>
       </c>
       <c r="B83" s="5">
         <v>244.0</v>
@@ -30678,7 +31008,7 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>1344</v>
+        <v>1363</v>
       </c>
       <c r="B84" s="5">
         <v>245.0</v>
@@ -30690,7 +31020,7 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>1345</v>
+        <v>1364</v>
       </c>
       <c r="B85" s="5">
         <v>246.0</v>
@@ -30702,7 +31032,7 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>1346</v>
+        <v>1365</v>
       </c>
       <c r="B86" s="5">
         <v>248.0</v>
@@ -30714,7 +31044,7 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>1347</v>
+        <v>1366</v>
       </c>
       <c r="B87" s="5">
         <v>249.0</v>
@@ -30726,7 +31056,7 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>1348</v>
+        <v>1367</v>
       </c>
       <c r="B88" s="5">
         <v>250.0</v>
@@ -30738,7 +31068,7 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>1349</v>
+        <v>1368</v>
       </c>
       <c r="B89" s="5">
         <v>251.0</v>
@@ -30750,7 +31080,7 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="B90" s="5">
         <v>252.0</v>
@@ -30762,7 +31092,7 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>1351</v>
+        <v>1370</v>
       </c>
       <c r="B91" s="5">
         <v>253.0</v>
@@ -30774,7 +31104,7 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>1352</v>
+        <v>1371</v>
       </c>
       <c r="B92" s="5">
         <v>254.0</v>
@@ -30786,7 +31116,7 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>1353</v>
+        <v>1372</v>
       </c>
       <c r="B93" s="5">
         <v>255.0</v>
@@ -30798,7 +31128,7 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
       <c r="B94" s="5">
         <v>256.0</v>
@@ -30810,7 +31140,7 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>1355</v>
+        <v>1374</v>
       </c>
       <c r="B95" s="5">
         <v>257.0</v>
@@ -30822,7 +31152,7 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>1356</v>
+        <v>1375</v>
       </c>
       <c r="B96" s="5">
         <v>258.0</v>
@@ -30834,7 +31164,7 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>1357</v>
+        <v>1376</v>
       </c>
       <c r="B97" s="5">
         <v>260.0</v>
@@ -30846,7 +31176,7 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="B98" s="5">
         <v>261.0</v>
@@ -30858,7 +31188,7 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>1359</v>
+        <v>1378</v>
       </c>
       <c r="B99" s="5">
         <v>262.0</v>
@@ -30870,7 +31200,7 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="B100" s="5">
         <v>262.0</v>
@@ -30882,7 +31212,7 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
       <c r="B101" s="5">
         <v>263.0</v>
@@ -30894,7 +31224,7 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>1362</v>
+        <v>1381</v>
       </c>
       <c r="B102" s="5">
         <v>264.0</v>
@@ -30906,7 +31236,7 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>1363</v>
+        <v>1382</v>
       </c>
       <c r="B103" s="5">
         <v>265.0</v>
@@ -30918,7 +31248,7 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>1364</v>
+        <v>1383</v>
       </c>
       <c r="B104" s="5">
         <v>266.0</v>
@@ -30930,7 +31260,7 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>1365</v>
+        <v>1384</v>
       </c>
       <c r="B105" s="5">
         <v>267.0</v>
@@ -30942,7 +31272,7 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>1366</v>
+        <v>1385</v>
       </c>
       <c r="B106" s="5">
         <v>268.0</v>
@@ -30954,7 +31284,7 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>1367</v>
+        <v>1386</v>
       </c>
       <c r="B107" s="5">
         <v>269.0</v>
@@ -30966,7 +31296,7 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>1368</v>
+        <v>1387</v>
       </c>
       <c r="B108" s="5">
         <v>290.0</v>
@@ -30978,7 +31308,7 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>1369</v>
+        <v>1388</v>
       </c>
       <c r="B109" s="5">
         <v>291.0</v>
@@ -30990,7 +31320,7 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>1370</v>
+        <v>1389</v>
       </c>
       <c r="B110" s="5">
         <v>297.0</v>
@@ -31002,7 +31332,7 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>1371</v>
+        <v>1390</v>
       </c>
       <c r="B111" s="5">
         <v>298.0</v>
@@ -31014,7 +31344,7 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>1372</v>
+        <v>1391</v>
       </c>
       <c r="B112" s="5">
         <v>299.0</v>
@@ -31026,7 +31356,7 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>1373</v>
+        <v>1392</v>
       </c>
       <c r="B113" s="5">
         <v>350.0</v>
@@ -31038,7 +31368,7 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>1374</v>
+        <v>1393</v>
       </c>
       <c r="B114" s="5">
         <v>351.0</v>
@@ -31050,7 +31380,7 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>1375</v>
+        <v>1394</v>
       </c>
       <c r="B115" s="5">
         <v>352.0</v>
@@ -31062,7 +31392,7 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>1376</v>
+        <v>1395</v>
       </c>
       <c r="B116" s="5">
         <v>353.0</v>
@@ -31074,7 +31404,7 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>1377</v>
+        <v>1396</v>
       </c>
       <c r="B117" s="5">
         <v>354.0</v>
@@ -31086,7 +31416,7 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>1378</v>
+        <v>1397</v>
       </c>
       <c r="B118" s="5">
         <v>355.0</v>
@@ -31098,7 +31428,7 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>1379</v>
+        <v>1398</v>
       </c>
       <c r="B119" s="5">
         <v>356.0</v>
@@ -31110,7 +31440,7 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>1380</v>
+        <v>1399</v>
       </c>
       <c r="B120" s="5">
         <v>357.0</v>
@@ -31122,7 +31452,7 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>1381</v>
+        <v>1400</v>
       </c>
       <c r="B121" s="5">
         <v>358.0</v>
@@ -31134,7 +31464,7 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>1382</v>
+        <v>1401</v>
       </c>
       <c r="B122" s="5">
         <v>359.0</v>
@@ -31146,7 +31476,7 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>1383</v>
+        <v>1402</v>
       </c>
       <c r="B123" s="5">
         <v>370.0</v>
@@ -31158,7 +31488,7 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>1384</v>
+        <v>1403</v>
       </c>
       <c r="B124" s="5">
         <v>371.0</v>
@@ -31170,7 +31500,7 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>1385</v>
+        <v>1404</v>
       </c>
       <c r="B125" s="5">
         <v>372.0</v>
@@ -31182,7 +31512,7 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>1386</v>
+        <v>1405</v>
       </c>
       <c r="B126" s="5">
         <v>373.0</v>
@@ -31194,7 +31524,7 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>1387</v>
+        <v>1406</v>
       </c>
       <c r="B127" s="5">
         <v>374.0</v>
@@ -31206,7 +31536,7 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>1388</v>
+        <v>1407</v>
       </c>
       <c r="B128" s="5">
         <v>375.0</v>
@@ -31218,7 +31548,7 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="B129" s="5">
         <v>376.0</v>
@@ -31230,7 +31560,7 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>1390</v>
+        <v>1409</v>
       </c>
       <c r="B130" s="5">
         <v>377.0</v>
@@ -31242,7 +31572,7 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>1391</v>
+        <v>1410</v>
       </c>
       <c r="B131" s="5">
         <v>378.0</v>
@@ -31254,7 +31584,7 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>1392</v>
+        <v>1411</v>
       </c>
       <c r="B132" s="5">
         <v>379.0</v>
@@ -31266,7 +31596,7 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>1393</v>
+        <v>1412</v>
       </c>
       <c r="B133" s="5">
         <v>380.0</v>
@@ -31278,7 +31608,7 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>1394</v>
+        <v>1413</v>
       </c>
       <c r="B134" s="5">
         <v>381.0</v>
@@ -31290,7 +31620,7 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>1395</v>
+        <v>1414</v>
       </c>
       <c r="B135" s="5">
         <v>382.0</v>
@@ -31302,7 +31632,7 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>1396</v>
+        <v>1415</v>
       </c>
       <c r="B136" s="5">
         <v>383.0</v>
@@ -31314,7 +31644,7 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>1397</v>
+        <v>1416</v>
       </c>
       <c r="B137" s="5">
         <v>385.0</v>
@@ -31326,7 +31656,7 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>1398</v>
+        <v>1417</v>
       </c>
       <c r="B138" s="5">
         <v>386.0</v>
@@ -31338,7 +31668,7 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>1399</v>
+        <v>1418</v>
       </c>
       <c r="B139" s="5">
         <v>387.0</v>
@@ -31350,7 +31680,7 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>1400</v>
+        <v>1419</v>
       </c>
       <c r="B140" s="5">
         <v>389.0</v>
@@ -31362,7 +31692,7 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>1401</v>
+        <v>1420</v>
       </c>
       <c r="B141" s="5">
         <v>420.0</v>
@@ -31374,7 +31704,7 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
       <c r="B142" s="5">
         <v>421.0</v>
@@ -31386,7 +31716,7 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>1403</v>
+        <v>1422</v>
       </c>
       <c r="B143" s="5">
         <v>423.0</v>
@@ -31398,7 +31728,7 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>1404</v>
+        <v>1423</v>
       </c>
       <c r="B144" s="5">
         <v>500.0</v>
@@ -31410,7 +31740,7 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>1405</v>
+        <v>1424</v>
       </c>
       <c r="B145" s="5">
         <v>501.0</v>
@@ -31422,7 +31752,7 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>1406</v>
+        <v>1425</v>
       </c>
       <c r="B146" s="5">
         <v>502.0</v>
@@ -31434,7 +31764,7 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>1407</v>
+        <v>1426</v>
       </c>
       <c r="B147" s="5">
         <v>503.0</v>
@@ -31446,7 +31776,7 @@
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>1408</v>
+        <v>1427</v>
       </c>
       <c r="B148" s="5">
         <v>504.0</v>
@@ -31458,7 +31788,7 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>1409</v>
+        <v>1428</v>
       </c>
       <c r="B149" s="5">
         <v>505.0</v>
@@ -31470,7 +31800,7 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>1410</v>
+        <v>1429</v>
       </c>
       <c r="B150" s="5">
         <v>506.0</v>
@@ -31482,7 +31812,7 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>1411</v>
+        <v>1430</v>
       </c>
       <c r="B151" s="5">
         <v>507.0</v>
@@ -31494,7 +31824,7 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>1412</v>
+        <v>1431</v>
       </c>
       <c r="B152" s="5">
         <v>508.0</v>
@@ -31506,7 +31836,7 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>1413</v>
+        <v>1432</v>
       </c>
       <c r="B153" s="5">
         <v>509.0</v>
@@ -31518,7 +31848,7 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>1414</v>
+        <v>1433</v>
       </c>
       <c r="B154" s="5">
         <v>590.0</v>
@@ -31530,7 +31860,7 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>1415</v>
+        <v>1434</v>
       </c>
       <c r="B155" s="5">
         <v>590.0</v>
@@ -31542,7 +31872,7 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>1416</v>
+        <v>1435</v>
       </c>
       <c r="B156" s="5">
         <v>591.0</v>
@@ -31554,7 +31884,7 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>1417</v>
+        <v>1436</v>
       </c>
       <c r="B157" s="5">
         <v>592.0</v>
@@ -31566,7 +31896,7 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>1418</v>
+        <v>1437</v>
       </c>
       <c r="B158" s="5">
         <v>593.0</v>
@@ -31578,7 +31908,7 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>1419</v>
+        <v>1438</v>
       </c>
       <c r="B159" s="5">
         <v>595.0</v>
@@ -31590,7 +31920,7 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>1420</v>
+        <v>1439</v>
       </c>
       <c r="B160" s="5">
         <v>597.0</v>
@@ -31602,7 +31932,7 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>1421</v>
+        <v>1440</v>
       </c>
       <c r="B161" s="5">
         <v>598.0</v>
@@ -31614,7 +31944,7 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>1422</v>
+        <v>1441</v>
       </c>
       <c r="B162" s="5">
         <v>599.0</v>
@@ -31626,7 +31956,7 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>1423</v>
+        <v>1442</v>
       </c>
       <c r="B163" s="5">
         <v>599.0</v>
@@ -31638,7 +31968,7 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>1424</v>
+        <v>1443</v>
       </c>
       <c r="B164" s="5">
         <v>670.0</v>
@@ -31650,7 +31980,7 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>1425</v>
+        <v>1444</v>
       </c>
       <c r="B165" s="5">
         <v>672.0</v>
@@ -31662,7 +31992,7 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>1426</v>
+        <v>1445</v>
       </c>
       <c r="B166" s="5">
         <v>673.0</v>
@@ -31674,7 +32004,7 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>1427</v>
+        <v>1446</v>
       </c>
       <c r="B167" s="5">
         <v>674.0</v>
@@ -31686,7 +32016,7 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>1428</v>
+        <v>1447</v>
       </c>
       <c r="B168" s="5">
         <v>675.0</v>
@@ -31698,7 +32028,7 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>1429</v>
+        <v>1448</v>
       </c>
       <c r="B169" s="5">
         <v>676.0</v>
@@ -31710,7 +32040,7 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>1430</v>
+        <v>1449</v>
       </c>
       <c r="B170" s="5">
         <v>677.0</v>
@@ -31722,7 +32052,7 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>1431</v>
+        <v>1450</v>
       </c>
       <c r="B171" s="5">
         <v>678.0</v>
@@ -31734,7 +32064,7 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>1432</v>
+        <v>1451</v>
       </c>
       <c r="B172" s="5">
         <v>679.0</v>
@@ -31746,7 +32076,7 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>1433</v>
+        <v>1452</v>
       </c>
       <c r="B173" s="5">
         <v>680.0</v>
@@ -31758,7 +32088,7 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>1434</v>
+        <v>1453</v>
       </c>
       <c r="B174" s="5">
         <v>681.0</v>
@@ -31770,7 +32100,7 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>1435</v>
+        <v>1454</v>
       </c>
       <c r="B175" s="5">
         <v>682.0</v>
@@ -31782,7 +32112,7 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>1436</v>
+        <v>1455</v>
       </c>
       <c r="B176" s="5">
         <v>683.0</v>
@@ -31794,7 +32124,7 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>1437</v>
+        <v>1456</v>
       </c>
       <c r="B177" s="5">
         <v>685.0</v>
@@ -31806,7 +32136,7 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>1438</v>
+        <v>1457</v>
       </c>
       <c r="B178" s="5">
         <v>686.0</v>
@@ -31818,7 +32148,7 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>1439</v>
+        <v>1458</v>
       </c>
       <c r="B179" s="5">
         <v>687.0</v>
@@ -31830,7 +32160,7 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>1440</v>
+        <v>1459</v>
       </c>
       <c r="B180" s="5">
         <v>688.0</v>
@@ -31842,7 +32172,7 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>1441</v>
+        <v>1460</v>
       </c>
       <c r="B181" s="5">
         <v>689.0</v>
@@ -31854,7 +32184,7 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>1442</v>
+        <v>1461</v>
       </c>
       <c r="B182" s="5">
         <v>690.0</v>
@@ -31866,7 +32196,7 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>1443</v>
+        <v>1462</v>
       </c>
       <c r="B183" s="5">
         <v>691.0</v>
@@ -31878,7 +32208,7 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>1444</v>
+        <v>1463</v>
       </c>
       <c r="B184" s="5">
         <v>692.0</v>
@@ -31890,7 +32220,7 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>1445</v>
+        <v>1464</v>
       </c>
       <c r="B185" s="5">
         <v>850.0</v>
@@ -31902,7 +32232,7 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>1446</v>
+        <v>1465</v>
       </c>
       <c r="B186" s="5">
         <v>852.0</v>
@@ -31914,7 +32244,7 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>1447</v>
+        <v>1466</v>
       </c>
       <c r="B187" s="5">
         <v>853.0</v>
@@ -31926,7 +32256,7 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>1448</v>
+        <v>1467</v>
       </c>
       <c r="B188" s="5">
         <v>855.0</v>
@@ -31938,7 +32268,7 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>1449</v>
+        <v>1468</v>
       </c>
       <c r="B189" s="5">
         <v>856.0</v>
@@ -31950,7 +32280,7 @@
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>1450</v>
+        <v>1469</v>
       </c>
       <c r="B190" s="5">
         <v>880.0</v>
@@ -31962,7 +32292,7 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>1451</v>
+        <v>1470</v>
       </c>
       <c r="B191" s="5">
         <v>886.0</v>
@@ -31974,7 +32304,7 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>1452</v>
+        <v>1471</v>
       </c>
       <c r="B192" s="5">
         <v>960.0</v>
@@ -31986,7 +32316,7 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>1453</v>
+        <v>1472</v>
       </c>
       <c r="B193" s="5">
         <v>961.0</v>
@@ -31998,7 +32328,7 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>1454</v>
+        <v>1473</v>
       </c>
       <c r="B194" s="5">
         <v>962.0</v>
@@ -32010,7 +32340,7 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>1455</v>
+        <v>1474</v>
       </c>
       <c r="B195" s="5">
         <v>963.0</v>
@@ -32022,7 +32352,7 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>1456</v>
+        <v>1475</v>
       </c>
       <c r="B196" s="5">
         <v>964.0</v>
@@ -32034,7 +32364,7 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>1457</v>
+        <v>1476</v>
       </c>
       <c r="B197" s="5">
         <v>965.0</v>
@@ -32046,7 +32376,7 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>1458</v>
+        <v>1477</v>
       </c>
       <c r="B198" s="5">
         <v>966.0</v>
@@ -32058,7 +32388,7 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>1459</v>
+        <v>1478</v>
       </c>
       <c r="B199" s="5">
         <v>967.0</v>
@@ -32070,7 +32400,7 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>1460</v>
+        <v>1479</v>
       </c>
       <c r="B200" s="5">
         <v>968.0</v>
@@ -32082,7 +32412,7 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>1461</v>
+        <v>1480</v>
       </c>
       <c r="B201" s="5">
         <v>970.0</v>
@@ -32094,7 +32424,7 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>1462</v>
+        <v>1481</v>
       </c>
       <c r="B202" s="5">
         <v>971.0</v>
@@ -32106,7 +32436,7 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>1463</v>
+        <v>1482</v>
       </c>
       <c r="B203" s="5">
         <v>972.0</v>
@@ -32118,7 +32448,7 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>1464</v>
+        <v>1483</v>
       </c>
       <c r="B204" s="5">
         <v>973.0</v>
@@ -32130,7 +32460,7 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>1465</v>
+        <v>1484</v>
       </c>
       <c r="B205" s="5">
         <v>974.0</v>
@@ -32142,7 +32472,7 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>1466</v>
+        <v>1485</v>
       </c>
       <c r="B206" s="5">
         <v>975.0</v>
@@ -32154,7 +32484,7 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>1467</v>
+        <v>1486</v>
       </c>
       <c r="B207" s="5">
         <v>976.0</v>
@@ -32166,7 +32496,7 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>1468</v>
+        <v>1487</v>
       </c>
       <c r="B208" s="5">
         <v>977.0</v>
@@ -32178,7 +32508,7 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>1469</v>
+        <v>1488</v>
       </c>
       <c r="B209" s="5">
         <v>992.0</v>
@@ -32190,7 +32520,7 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>1470</v>
+        <v>1489</v>
       </c>
       <c r="B210" s="5">
         <v>993.0</v>
@@ -32202,7 +32532,7 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>1471</v>
+        <v>1490</v>
       </c>
       <c r="B211" s="5">
         <v>994.0</v>
@@ -32214,7 +32544,7 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>1472</v>
+        <v>1491</v>
       </c>
       <c r="B212" s="5">
         <v>995.0</v>
@@ -32226,7 +32556,7 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
-        <v>1473</v>
+        <v>1492</v>
       </c>
       <c r="B213" s="5">
         <v>996.0</v>
@@ -32238,7 +32568,7 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
-        <v>1474</v>
+        <v>1493</v>
       </c>
       <c r="B214" s="5">
         <v>998.0</v>
@@ -32250,10 +32580,10 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>1475</v>
+        <v>1494</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1476</v>
+        <v>1495</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="6"/>
@@ -32262,10 +32592,10 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>1477</v>
+        <v>1496</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1478</v>
+        <v>1497</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="6"/>
@@ -32274,10 +32604,10 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>1479</v>
+        <v>1498</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1480</v>
+        <v>1499</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="6"/>
@@ -32286,10 +32616,10 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>1481</v>
+        <v>1500</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1482</v>
+        <v>1501</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="6"/>
@@ -32298,10 +32628,10 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>1483</v>
+        <v>1502</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1484</v>
+        <v>1503</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="6"/>
@@ -32310,10 +32640,10 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>1485</v>
+        <v>1504</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1486</v>
+        <v>1505</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="6"/>
@@ -32322,10 +32652,10 @@
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>1487</v>
+        <v>1506</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>1488</v>
+        <v>1507</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="6"/>
@@ -32334,10 +32664,10 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>1489</v>
+        <v>1508</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>1490</v>
+        <v>1509</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="6"/>
@@ -32346,10 +32676,10 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>1491</v>
+        <v>1510</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1492</v>
+        <v>1511</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="6"/>
@@ -32358,10 +32688,10 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>1493</v>
+        <v>1512</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1494</v>
+        <v>1513</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="6"/>
@@ -32370,10 +32700,10 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>1495</v>
+        <v>1514</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1496</v>
+        <v>1515</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="6"/>
@@ -32382,10 +32712,10 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
-        <v>1497</v>
+        <v>1516</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1498</v>
+        <v>1517</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="6"/>
@@ -32394,10 +32724,10 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
-        <v>1499</v>
+        <v>1518</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1500</v>
+        <v>1519</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="6"/>
@@ -32406,10 +32736,10 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>1501</v>
+        <v>1520</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="6"/>
@@ -32418,10 +32748,10 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>1503</v>
+        <v>1522</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1504</v>
+        <v>1523</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="6"/>
@@ -32430,10 +32760,10 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>1505</v>
+        <v>1524</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1506</v>
+        <v>1525</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="6"/>
@@ -32442,10 +32772,10 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>1507</v>
+        <v>1526</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1508</v>
+        <v>1527</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="6"/>
@@ -32454,10 +32784,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>1509</v>
+        <v>1528</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1510</v>
+        <v>1529</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="6"/>
@@ -32466,10 +32796,10 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>1511</v>
+        <v>1530</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1512</v>
+        <v>1531</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="6"/>
@@ -32478,10 +32808,10 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>1513</v>
+        <v>1532</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1514</v>
+        <v>1533</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="6"/>
@@ -32490,10 +32820,10 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>1515</v>
+        <v>1534</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1516</v>
+        <v>1535</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="6"/>
@@ -32502,10 +32832,10 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>1517</v>
+        <v>1536</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1518</v>
+        <v>1537</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="6"/>
@@ -32514,10 +32844,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>1519</v>
+        <v>1538</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1520</v>
+        <v>1539</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="6"/>
@@ -32526,10 +32856,10 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>1521</v>
+        <v>1540</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1522</v>
+        <v>1541</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="6"/>
@@ -32538,10 +32868,10 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>1523</v>
+        <v>1542</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1524</v>
+        <v>1543</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="6"/>
@@ -32550,10 +32880,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>1525</v>
+        <v>1544</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1526</v>
+        <v>1545</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="6"/>

--- a/Tool/ExporterSheet.xlsx
+++ b/Tool/ExporterSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6688" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="1608">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -3852,6 +3852,192 @@
   </si>
   <si>
     <t>https://u.to/8tayIA</t>
+  </si>
+  <si>
+    <t>933430500310274150</t>
+  </si>
+  <si>
+    <t>kirillsnxs</t>
+  </si>
+  <si>
+    <t>https://goo.su/ds-fast</t>
+  </si>
+  <si>
+    <t>435962617958367267</t>
+  </si>
+  <si>
+    <t>soggetto_ventuno</t>
+  </si>
+  <si>
+    <t>https://surl.pk/rUrcX</t>
+  </si>
+  <si>
+    <t>393807661222723604</t>
+  </si>
+  <si>
+    <t>bon_it</t>
+  </si>
+  <si>
+    <t>https://discord.gg/uXDTXRhEmV</t>
+  </si>
+  <si>
+    <t>535685566759436289</t>
+  </si>
+  <si>
+    <t>oscar_.535</t>
+  </si>
+  <si>
+    <t>https://discord.com/invite/hottestnudes</t>
+  </si>
+  <si>
+    <t>622363287509663755</t>
+  </si>
+  <si>
+    <t>theroed</t>
+  </si>
+  <si>
+    <t>https://discord.gg/QnxV8F3M4H</t>
+  </si>
+  <si>
+    <t>1104009748157833248</t>
+  </si>
+  <si>
+    <t>fl1xe4.</t>
+  </si>
+  <si>
+    <t>https://t.me/hamsteR_kombat_bot/start?startapp=kentId1010047517</t>
+  </si>
+  <si>
+    <t>310600299985502229</t>
+  </si>
+  <si>
+    <t>asloluteman</t>
+  </si>
+  <si>
+    <t>https://qptr.ru/OXGR</t>
+  </si>
+  <si>
+    <t>110961894352773120</t>
+  </si>
+  <si>
+    <t>djrizzo</t>
+  </si>
+  <si>
+    <t>1184158972459094056</t>
+  </si>
+  <si>
+    <t>fiko2601finn2</t>
+  </si>
+  <si>
+    <t>https://discord.gg/needgirls</t>
+  </si>
+  <si>
+    <t>378587045859295262</t>
+  </si>
+  <si>
+    <t>_kydon__</t>
+  </si>
+  <si>
+    <t>https://u.to/PvyzIA</t>
+  </si>
+  <si>
+    <t>548537275483684874</t>
+  </si>
+  <si>
+    <t>dijispeks</t>
+  </si>
+  <si>
+    <t>https://sc.link/bBqlE</t>
+  </si>
+  <si>
+    <t>790593040620322879</t>
+  </si>
+  <si>
+    <t>secret_1ust</t>
+  </si>
+  <si>
+    <t>Game Cheat Server Invite</t>
+  </si>
+  <si>
+    <t>https://discord.gg/aquacheats</t>
+  </si>
+  <si>
+    <t>348140787881738242</t>
+  </si>
+  <si>
+    <t>senseiraz</t>
+  </si>
+  <si>
+    <t>https://discord.com/invite/teenhubs</t>
+  </si>
+  <si>
+    <t>604744122099826705</t>
+  </si>
+  <si>
+    <t>coffee__zombie</t>
+  </si>
+  <si>
+    <t>https://t.me/hamster_kombat_boT/start?startapp=kentId664552316</t>
+  </si>
+  <si>
+    <t>1108822740141604874</t>
+  </si>
+  <si>
+    <t>votan8939</t>
+  </si>
+  <si>
+    <t>https://discord.gg/5XJBNQNu9A</t>
+  </si>
+  <si>
+    <t>755078480613474306</t>
+  </si>
+  <si>
+    <t>mokrymacios69</t>
+  </si>
+  <si>
+    <t>https://discord.gg/PUHPpZyp3p</t>
+  </si>
+  <si>
+    <t>923264554010566767</t>
+  </si>
+  <si>
+    <t>hitsutoshi_sawa</t>
+  </si>
+  <si>
+    <t>980300487603667006</t>
+  </si>
+  <si>
+    <t>jakku1741</t>
+  </si>
+  <si>
+    <t>https://t.me/sexporns_robot</t>
+  </si>
+  <si>
+    <t>658050583600562200</t>
+  </si>
+  <si>
+    <t>gmgl_</t>
+  </si>
+  <si>
+    <t>https://discord.gg/XYeawwJwky</t>
+  </si>
+  <si>
+    <t>https://t.me/chatroomver7</t>
+  </si>
+  <si>
+    <t>878012771407638528</t>
+  </si>
+  <si>
+    <t>.zhegonya</t>
+  </si>
+  <si>
+    <t>478816097530019860</t>
+  </si>
+  <si>
+    <t>larry.l33t</t>
+  </si>
+  <si>
+    <t>https://sc.link/hBv6i</t>
   </si>
   <si>
     <t>Canada</t>
@@ -29350,6 +29536,842 @@
         <v>30</v>
       </c>
       <c r="L642" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1">
+        <v>642.0</v>
+      </c>
+      <c r="B643" s="2">
+        <v>45438.0</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J643" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K643" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L643" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1">
+        <v>643.0</v>
+      </c>
+      <c r="B644" s="2">
+        <v>45438.0</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H644" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I644" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J644" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K644" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L644" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="B645" s="2">
+        <v>45438.0</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H645" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J645" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K645" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L645" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1">
+        <v>645.0</v>
+      </c>
+      <c r="B646" s="2">
+        <v>45438.0</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H646" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J646" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K646" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L646" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1">
+        <v>646.0</v>
+      </c>
+      <c r="B647" s="2">
+        <v>45439.0</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H647" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I647" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J647" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K647" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L647" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1">
+        <v>647.0</v>
+      </c>
+      <c r="B648" s="2">
+        <v>45439.0</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G648" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H648" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I648" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J648" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K648" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L648" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1">
+        <v>648.0</v>
+      </c>
+      <c r="B649" s="2">
+        <v>45439.0</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H649" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I649" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J649" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K649" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L649" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1">
+        <v>649.0</v>
+      </c>
+      <c r="B650" s="2">
+        <v>45439.0</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H650" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J650" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K650" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L650" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1">
+        <v>650.0</v>
+      </c>
+      <c r="B651" s="2">
+        <v>45440.0</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H651" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J651" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K651" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L651" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1">
+        <v>651.0</v>
+      </c>
+      <c r="B652" s="2">
+        <v>45440.0</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H652" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J652" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K652" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L652" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1">
+        <v>652.0</v>
+      </c>
+      <c r="B653" s="2">
+        <v>45440.0</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H653" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J653" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K653" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L653" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1">
+        <v>653.0</v>
+      </c>
+      <c r="B654" s="2">
+        <v>45441.0</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H654" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I654" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J654" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K654" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L654" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1">
+        <v>654.0</v>
+      </c>
+      <c r="B655" s="2">
+        <v>45441.0</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H655" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I655" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J655" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K655" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L655" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1">
+        <v>655.0</v>
+      </c>
+      <c r="B656" s="2">
+        <v>45441.0</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H656" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I656" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J656" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K656" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L656" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1">
+        <v>656.0</v>
+      </c>
+      <c r="B657" s="2">
+        <v>45442.0</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G657" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H657" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I657" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J657" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K657" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L657" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1">
+        <v>657.0</v>
+      </c>
+      <c r="B658" s="2">
+        <v>45442.0</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H658" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I658" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J658" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K658" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L658" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1">
+        <v>658.0</v>
+      </c>
+      <c r="B659" s="2">
+        <v>45443.0</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G659" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H659" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I659" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J659" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K659" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L659" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1">
+        <v>659.0</v>
+      </c>
+      <c r="B660" s="2">
+        <v>45443.0</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H660" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I660" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J660" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K660" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L660" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1">
+        <v>660.0</v>
+      </c>
+      <c r="B661" s="2">
+        <v>45443.0</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G661" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H661" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I661" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J661" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K661" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L661" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1">
+        <v>661.0</v>
+      </c>
+      <c r="B662" s="2">
+        <v>45443.0</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G662" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H662" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I662" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J662" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K662" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L662" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1">
+        <v>662.0</v>
+      </c>
+      <c r="B663" s="2">
+        <v>45444.0</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G663" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H663" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I663" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J663" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K663" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L663" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B664" s="2">
+        <v>45444.0</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G664" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H664" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I664" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J664" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K664" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L664" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -29995,8 +31017,30 @@
     <hyperlink r:id="rId638" ref="J640"/>
     <hyperlink r:id="rId639" ref="J641"/>
     <hyperlink r:id="rId640" ref="J642"/>
+    <hyperlink r:id="rId641" ref="J643"/>
+    <hyperlink r:id="rId642" ref="J644"/>
+    <hyperlink r:id="rId643" ref="J645"/>
+    <hyperlink r:id="rId644" ref="J646"/>
+    <hyperlink r:id="rId645" ref="J647"/>
+    <hyperlink r:id="rId646" ref="J648"/>
+    <hyperlink r:id="rId647" ref="J649"/>
+    <hyperlink r:id="rId648" ref="J650"/>
+    <hyperlink r:id="rId649" ref="J651"/>
+    <hyperlink r:id="rId650" ref="J652"/>
+    <hyperlink r:id="rId651" ref="J653"/>
+    <hyperlink r:id="rId652" ref="J654"/>
+    <hyperlink r:id="rId653" ref="J655"/>
+    <hyperlink r:id="rId654" ref="J656"/>
+    <hyperlink r:id="rId655" ref="J657"/>
+    <hyperlink r:id="rId656" ref="J658"/>
+    <hyperlink r:id="rId657" ref="J659"/>
+    <hyperlink r:id="rId658" ref="J660"/>
+    <hyperlink r:id="rId659" ref="J661"/>
+    <hyperlink r:id="rId660" ref="J662"/>
+    <hyperlink r:id="rId661" ref="J663"/>
+    <hyperlink r:id="rId662" ref="J664"/>
   </hyperlinks>
-  <drawing r:id="rId641"/>
+  <drawing r:id="rId663"/>
 </worksheet>
 </file>
 
@@ -30012,7 +31056,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1280</v>
+        <v>1342</v>
       </c>
       <c r="B1" s="5">
         <v>1.0</v>
@@ -30024,7 +31068,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1281</v>
+        <v>1343</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
@@ -30036,7 +31080,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1282</v>
+        <v>1344</v>
       </c>
       <c r="B3" s="5">
         <v>7.0</v>
@@ -30048,7 +31092,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1283</v>
+        <v>1345</v>
       </c>
       <c r="B4" s="5">
         <v>7.0</v>
@@ -30060,7 +31104,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1284</v>
+        <v>1346</v>
       </c>
       <c r="B5" s="5">
         <v>20.0</v>
@@ -30072,7 +31116,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1285</v>
+        <v>1347</v>
       </c>
       <c r="B6" s="5">
         <v>27.0</v>
@@ -30084,7 +31128,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1286</v>
+        <v>1348</v>
       </c>
       <c r="B7" s="5">
         <v>30.0</v>
@@ -30096,7 +31140,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1287</v>
+        <v>1349</v>
       </c>
       <c r="B8" s="5">
         <v>31.0</v>
@@ -30108,7 +31152,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1288</v>
+        <v>1350</v>
       </c>
       <c r="B9" s="5">
         <v>32.0</v>
@@ -30120,7 +31164,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1289</v>
+        <v>1351</v>
       </c>
       <c r="B10" s="5">
         <v>33.0</v>
@@ -30132,7 +31176,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1290</v>
+        <v>1352</v>
       </c>
       <c r="B11" s="5">
         <v>34.0</v>
@@ -30144,7 +31188,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>1291</v>
+        <v>1353</v>
       </c>
       <c r="B12" s="5">
         <v>36.0</v>
@@ -30156,7 +31200,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>1292</v>
+        <v>1354</v>
       </c>
       <c r="B13" s="5">
         <v>39.0</v>
@@ -30168,7 +31212,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>1293</v>
+        <v>1355</v>
       </c>
       <c r="B14" s="5">
         <v>40.0</v>
@@ -30180,7 +31224,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>1294</v>
+        <v>1356</v>
       </c>
       <c r="B15" s="5">
         <v>41.0</v>
@@ -30192,7 +31236,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>1295</v>
+        <v>1357</v>
       </c>
       <c r="B16" s="5">
         <v>43.0</v>
@@ -30204,7 +31248,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>1296</v>
+        <v>1358</v>
       </c>
       <c r="B17" s="5">
         <v>44.0</v>
@@ -30216,7 +31260,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>1297</v>
+        <v>1359</v>
       </c>
       <c r="B18" s="5">
         <v>45.0</v>
@@ -30228,7 +31272,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>1298</v>
+        <v>1360</v>
       </c>
       <c r="B19" s="5">
         <v>46.0</v>
@@ -30240,7 +31284,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>1299</v>
+        <v>1361</v>
       </c>
       <c r="B20" s="5">
         <v>47.0</v>
@@ -30252,7 +31296,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>1300</v>
+        <v>1362</v>
       </c>
       <c r="B21" s="5">
         <v>47.0</v>
@@ -30264,7 +31308,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>1301</v>
+        <v>1363</v>
       </c>
       <c r="B22" s="5">
         <v>48.0</v>
@@ -30276,7 +31320,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>1302</v>
+        <v>1364</v>
       </c>
       <c r="B23" s="5">
         <v>49.0</v>
@@ -30288,7 +31332,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>1303</v>
+        <v>1365</v>
       </c>
       <c r="B24" s="5">
         <v>51.0</v>
@@ -30300,7 +31344,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>1304</v>
+        <v>1366</v>
       </c>
       <c r="B25" s="5">
         <v>52.0</v>
@@ -30312,7 +31356,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>1305</v>
+        <v>1367</v>
       </c>
       <c r="B26" s="5">
         <v>53.0</v>
@@ -30324,7 +31368,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>1306</v>
+        <v>1368</v>
       </c>
       <c r="B27" s="5">
         <v>54.0</v>
@@ -30336,7 +31380,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>1307</v>
+        <v>1369</v>
       </c>
       <c r="B28" s="5">
         <v>55.0</v>
@@ -30348,7 +31392,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>1308</v>
+        <v>1370</v>
       </c>
       <c r="B29" s="5">
         <v>56.0</v>
@@ -30360,7 +31404,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>1309</v>
+        <v>1371</v>
       </c>
       <c r="B30" s="5">
         <v>57.0</v>
@@ -30372,7 +31416,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>1310</v>
+        <v>1372</v>
       </c>
       <c r="B31" s="5">
         <v>58.0</v>
@@ -30384,7 +31428,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>1311</v>
+        <v>1373</v>
       </c>
       <c r="B32" s="5">
         <v>60.0</v>
@@ -30396,7 +31440,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>1312</v>
+        <v>1374</v>
       </c>
       <c r="B33" s="5">
         <v>61.0</v>
@@ -30408,7 +31452,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>1313</v>
+        <v>1375</v>
       </c>
       <c r="B34" s="5">
         <v>61.0</v>
@@ -30420,7 +31464,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>1314</v>
+        <v>1376</v>
       </c>
       <c r="B35" s="5">
         <v>61.0</v>
@@ -30432,7 +31476,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>1315</v>
+        <v>1377</v>
       </c>
       <c r="B36" s="5">
         <v>62.0</v>
@@ -30444,7 +31488,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>1316</v>
+        <v>1378</v>
       </c>
       <c r="B37" s="5">
         <v>63.0</v>
@@ -30456,7 +31500,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>1317</v>
+        <v>1379</v>
       </c>
       <c r="B38" s="5">
         <v>64.0</v>
@@ -30468,7 +31512,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>1318</v>
+        <v>1380</v>
       </c>
       <c r="B39" s="5">
         <v>64.0</v>
@@ -30480,7 +31524,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>1319</v>
+        <v>1381</v>
       </c>
       <c r="B40" s="5">
         <v>65.0</v>
@@ -30492,7 +31536,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>1320</v>
+        <v>1382</v>
       </c>
       <c r="B41" s="5">
         <v>66.0</v>
@@ -30504,7 +31548,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>1321</v>
+        <v>1383</v>
       </c>
       <c r="B42" s="5">
         <v>81.0</v>
@@ -30516,7 +31560,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>1322</v>
+        <v>1384</v>
       </c>
       <c r="B43" s="5">
         <v>82.0</v>
@@ -30528,7 +31572,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>1323</v>
+        <v>1385</v>
       </c>
       <c r="B44" s="5">
         <v>84.0</v>
@@ -30540,7 +31584,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>1324</v>
+        <v>1386</v>
       </c>
       <c r="B45" s="5">
         <v>86.0</v>
@@ -30552,7 +31596,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>1325</v>
+        <v>1387</v>
       </c>
       <c r="B46" s="5">
         <v>90.0</v>
@@ -30564,7 +31608,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>1326</v>
+        <v>1388</v>
       </c>
       <c r="B47" s="5">
         <v>91.0</v>
@@ -30576,7 +31620,7 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>1327</v>
+        <v>1389</v>
       </c>
       <c r="B48" s="5">
         <v>92.0</v>
@@ -30588,7 +31632,7 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>1328</v>
+        <v>1390</v>
       </c>
       <c r="B49" s="5">
         <v>93.0</v>
@@ -30600,7 +31644,7 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>1329</v>
+        <v>1391</v>
       </c>
       <c r="B50" s="5">
         <v>94.0</v>
@@ -30612,7 +31656,7 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>1330</v>
+        <v>1392</v>
       </c>
       <c r="B51" s="5">
         <v>95.0</v>
@@ -30624,7 +31668,7 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>1331</v>
+        <v>1393</v>
       </c>
       <c r="B52" s="5">
         <v>98.0</v>
@@ -30636,7 +31680,7 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>1332</v>
+        <v>1394</v>
       </c>
       <c r="B53" s="5">
         <v>211.0</v>
@@ -30648,7 +31692,7 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>1333</v>
+        <v>1395</v>
       </c>
       <c r="B54" s="5">
         <v>212.0</v>
@@ -30660,7 +31704,7 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>1334</v>
+        <v>1396</v>
       </c>
       <c r="B55" s="5">
         <v>212.0</v>
@@ -30672,7 +31716,7 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>1335</v>
+        <v>1397</v>
       </c>
       <c r="B56" s="5">
         <v>213.0</v>
@@ -30684,7 +31728,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>1336</v>
+        <v>1398</v>
       </c>
       <c r="B57" s="5">
         <v>216.0</v>
@@ -30696,7 +31740,7 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>1337</v>
+        <v>1399</v>
       </c>
       <c r="B58" s="5">
         <v>218.0</v>
@@ -30708,7 +31752,7 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>1338</v>
+        <v>1400</v>
       </c>
       <c r="B59" s="5">
         <v>220.0</v>
@@ -30720,7 +31764,7 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>1339</v>
+        <v>1401</v>
       </c>
       <c r="B60" s="5">
         <v>221.0</v>
@@ -30732,7 +31776,7 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>1340</v>
+        <v>1402</v>
       </c>
       <c r="B61" s="5">
         <v>222.0</v>
@@ -30744,7 +31788,7 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>1341</v>
+        <v>1403</v>
       </c>
       <c r="B62" s="5">
         <v>223.0</v>
@@ -30756,7 +31800,7 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>1342</v>
+        <v>1404</v>
       </c>
       <c r="B63" s="5">
         <v>224.0</v>
@@ -30768,7 +31812,7 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>1343</v>
+        <v>1405</v>
       </c>
       <c r="B64" s="5">
         <v>225.0</v>
@@ -30780,7 +31824,7 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>1344</v>
+        <v>1406</v>
       </c>
       <c r="B65" s="5">
         <v>226.0</v>
@@ -30792,7 +31836,7 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>1345</v>
+        <v>1407</v>
       </c>
       <c r="B66" s="5">
         <v>227.0</v>
@@ -30804,7 +31848,7 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>1346</v>
+        <v>1408</v>
       </c>
       <c r="B67" s="5">
         <v>228.0</v>
@@ -30816,7 +31860,7 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>1347</v>
+        <v>1409</v>
       </c>
       <c r="B68" s="5">
         <v>229.0</v>
@@ -30828,7 +31872,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>1348</v>
+        <v>1410</v>
       </c>
       <c r="B69" s="5">
         <v>230.0</v>
@@ -30840,7 +31884,7 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>1349</v>
+        <v>1411</v>
       </c>
       <c r="B70" s="5">
         <v>231.0</v>
@@ -30852,7 +31896,7 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>1350</v>
+        <v>1412</v>
       </c>
       <c r="B71" s="5">
         <v>232.0</v>
@@ -30864,7 +31908,7 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>1351</v>
+        <v>1413</v>
       </c>
       <c r="B72" s="5">
         <v>233.0</v>
@@ -30876,7 +31920,7 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>1352</v>
+        <v>1414</v>
       </c>
       <c r="B73" s="5">
         <v>234.0</v>
@@ -30888,7 +31932,7 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>1353</v>
+        <v>1415</v>
       </c>
       <c r="B74" s="5">
         <v>235.0</v>
@@ -30900,7 +31944,7 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>1354</v>
+        <v>1416</v>
       </c>
       <c r="B75" s="5">
         <v>236.0</v>
@@ -30912,7 +31956,7 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>1355</v>
+        <v>1417</v>
       </c>
       <c r="B76" s="5">
         <v>237.0</v>
@@ -30924,7 +31968,7 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>1356</v>
+        <v>1418</v>
       </c>
       <c r="B77" s="5">
         <v>238.0</v>
@@ -30936,7 +31980,7 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>1357</v>
+        <v>1419</v>
       </c>
       <c r="B78" s="5">
         <v>239.0</v>
@@ -30948,7 +31992,7 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>1358</v>
+        <v>1420</v>
       </c>
       <c r="B79" s="5">
         <v>240.0</v>
@@ -30960,7 +32004,7 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>1359</v>
+        <v>1421</v>
       </c>
       <c r="B80" s="5">
         <v>241.0</v>
@@ -30972,7 +32016,7 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>1360</v>
+        <v>1422</v>
       </c>
       <c r="B81" s="5">
         <v>242.0</v>
@@ -30984,7 +32028,7 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>1361</v>
+        <v>1423</v>
       </c>
       <c r="B82" s="5">
         <v>243.0</v>
@@ -30996,7 +32040,7 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>1362</v>
+        <v>1424</v>
       </c>
       <c r="B83" s="5">
         <v>244.0</v>
@@ -31008,7 +32052,7 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>1363</v>
+        <v>1425</v>
       </c>
       <c r="B84" s="5">
         <v>245.0</v>
@@ -31020,7 +32064,7 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>1364</v>
+        <v>1426</v>
       </c>
       <c r="B85" s="5">
         <v>246.0</v>
@@ -31032,7 +32076,7 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>1365</v>
+        <v>1427</v>
       </c>
       <c r="B86" s="5">
         <v>248.0</v>
@@ -31044,7 +32088,7 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>1366</v>
+        <v>1428</v>
       </c>
       <c r="B87" s="5">
         <v>249.0</v>
@@ -31056,7 +32100,7 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>1367</v>
+        <v>1429</v>
       </c>
       <c r="B88" s="5">
         <v>250.0</v>
@@ -31068,7 +32112,7 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>1368</v>
+        <v>1430</v>
       </c>
       <c r="B89" s="5">
         <v>251.0</v>
@@ -31080,7 +32124,7 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>1369</v>
+        <v>1431</v>
       </c>
       <c r="B90" s="5">
         <v>252.0</v>
@@ -31092,7 +32136,7 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>1370</v>
+        <v>1432</v>
       </c>
       <c r="B91" s="5">
         <v>253.0</v>
@@ -31104,7 +32148,7 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>1371</v>
+        <v>1433</v>
       </c>
       <c r="B92" s="5">
         <v>254.0</v>
@@ -31116,7 +32160,7 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>1372</v>
+        <v>1434</v>
       </c>
       <c r="B93" s="5">
         <v>255.0</v>
@@ -31128,7 +32172,7 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>1373</v>
+        <v>1435</v>
       </c>
       <c r="B94" s="5">
         <v>256.0</v>
@@ -31140,7 +32184,7 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>1374</v>
+        <v>1436</v>
       </c>
       <c r="B95" s="5">
         <v>257.0</v>
@@ -31152,7 +32196,7 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>1375</v>
+        <v>1437</v>
       </c>
       <c r="B96" s="5">
         <v>258.0</v>
@@ -31164,7 +32208,7 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>1376</v>
+        <v>1438</v>
       </c>
       <c r="B97" s="5">
         <v>260.0</v>
@@ -31176,7 +32220,7 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>1377</v>
+        <v>1439</v>
       </c>
       <c r="B98" s="5">
         <v>261.0</v>
@@ -31188,7 +32232,7 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>1378</v>
+        <v>1440</v>
       </c>
       <c r="B99" s="5">
         <v>262.0</v>
@@ -31200,7 +32244,7 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>1379</v>
+        <v>1441</v>
       </c>
       <c r="B100" s="5">
         <v>262.0</v>
@@ -31212,7 +32256,7 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>1380</v>
+        <v>1442</v>
       </c>
       <c r="B101" s="5">
         <v>263.0</v>
@@ -31224,7 +32268,7 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>1381</v>
+        <v>1443</v>
       </c>
       <c r="B102" s="5">
         <v>264.0</v>
@@ -31236,7 +32280,7 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>1382</v>
+        <v>1444</v>
       </c>
       <c r="B103" s="5">
         <v>265.0</v>
@@ -31248,7 +32292,7 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>1383</v>
+        <v>1445</v>
       </c>
       <c r="B104" s="5">
         <v>266.0</v>
@@ -31260,7 +32304,7 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>1384</v>
+        <v>1446</v>
       </c>
       <c r="B105" s="5">
         <v>267.0</v>
@@ -31272,7 +32316,7 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>1385</v>
+        <v>1447</v>
       </c>
       <c r="B106" s="5">
         <v>268.0</v>
@@ -31284,7 +32328,7 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>1386</v>
+        <v>1448</v>
       </c>
       <c r="B107" s="5">
         <v>269.0</v>
@@ -31296,7 +32340,7 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>1387</v>
+        <v>1449</v>
       </c>
       <c r="B108" s="5">
         <v>290.0</v>
@@ -31308,7 +32352,7 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>1388</v>
+        <v>1450</v>
       </c>
       <c r="B109" s="5">
         <v>291.0</v>
@@ -31320,7 +32364,7 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>1389</v>
+        <v>1451</v>
       </c>
       <c r="B110" s="5">
         <v>297.0</v>
@@ -31332,7 +32376,7 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>1390</v>
+        <v>1452</v>
       </c>
       <c r="B111" s="5">
         <v>298.0</v>
@@ -31344,7 +32388,7 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>1391</v>
+        <v>1453</v>
       </c>
       <c r="B112" s="5">
         <v>299.0</v>
@@ -31356,7 +32400,7 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>1392</v>
+        <v>1454</v>
       </c>
       <c r="B113" s="5">
         <v>350.0</v>
@@ -31368,7 +32412,7 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>1393</v>
+        <v>1455</v>
       </c>
       <c r="B114" s="5">
         <v>351.0</v>
@@ -31380,7 +32424,7 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>1394</v>
+        <v>1456</v>
       </c>
       <c r="B115" s="5">
         <v>352.0</v>
@@ -31392,7 +32436,7 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>1395</v>
+        <v>1457</v>
       </c>
       <c r="B116" s="5">
         <v>353.0</v>
@@ -31404,7 +32448,7 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>1396</v>
+        <v>1458</v>
       </c>
       <c r="B117" s="5">
         <v>354.0</v>
@@ -31416,7 +32460,7 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>1397</v>
+        <v>1459</v>
       </c>
       <c r="B118" s="5">
         <v>355.0</v>
@@ -31428,7 +32472,7 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>1398</v>
+        <v>1460</v>
       </c>
       <c r="B119" s="5">
         <v>356.0</v>
@@ -31440,7 +32484,7 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>1399</v>
+        <v>1461</v>
       </c>
       <c r="B120" s="5">
         <v>357.0</v>
@@ -31452,7 +32496,7 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>1400</v>
+        <v>1462</v>
       </c>
       <c r="B121" s="5">
         <v>358.0</v>
@@ -31464,7 +32508,7 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>1401</v>
+        <v>1463</v>
       </c>
       <c r="B122" s="5">
         <v>359.0</v>
@@ -31476,7 +32520,7 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>1402</v>
+        <v>1464</v>
       </c>
       <c r="B123" s="5">
         <v>370.0</v>
@@ -31488,7 +32532,7 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>1403</v>
+        <v>1465</v>
       </c>
       <c r="B124" s="5">
         <v>371.0</v>
@@ -31500,7 +32544,7 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>1404</v>
+        <v>1466</v>
       </c>
       <c r="B125" s="5">
         <v>372.0</v>
@@ -31512,7 +32556,7 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>1405</v>
+        <v>1467</v>
       </c>
       <c r="B126" s="5">
         <v>373.0</v>
@@ -31524,7 +32568,7 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>1406</v>
+        <v>1468</v>
       </c>
       <c r="B127" s="5">
         <v>374.0</v>
@@ -31536,7 +32580,7 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>1407</v>
+        <v>1469</v>
       </c>
       <c r="B128" s="5">
         <v>375.0</v>
@@ -31548,7 +32592,7 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>1408</v>
+        <v>1470</v>
       </c>
       <c r="B129" s="5">
         <v>376.0</v>
@@ -31560,7 +32604,7 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>1409</v>
+        <v>1471</v>
       </c>
       <c r="B130" s="5">
         <v>377.0</v>
@@ -31572,7 +32616,7 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>1410</v>
+        <v>1472</v>
       </c>
       <c r="B131" s="5">
         <v>378.0</v>
@@ -31584,7 +32628,7 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>1411</v>
+        <v>1473</v>
       </c>
       <c r="B132" s="5">
         <v>379.0</v>
@@ -31596,7 +32640,7 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>1412</v>
+        <v>1474</v>
       </c>
       <c r="B133" s="5">
         <v>380.0</v>
@@ -31608,7 +32652,7 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>1413</v>
+        <v>1475</v>
       </c>
       <c r="B134" s="5">
         <v>381.0</v>
@@ -31620,7 +32664,7 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>1414</v>
+        <v>1476</v>
       </c>
       <c r="B135" s="5">
         <v>382.0</v>
@@ -31632,7 +32676,7 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>1415</v>
+        <v>1477</v>
       </c>
       <c r="B136" s="5">
         <v>383.0</v>
@@ -31644,7 +32688,7 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>1416</v>
+        <v>1478</v>
       </c>
       <c r="B137" s="5">
         <v>385.0</v>
@@ -31656,7 +32700,7 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>1417</v>
+        <v>1479</v>
       </c>
       <c r="B138" s="5">
         <v>386.0</v>
@@ -31668,7 +32712,7 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>1418</v>
+        <v>1480</v>
       </c>
       <c r="B139" s="5">
         <v>387.0</v>
@@ -31680,7 +32724,7 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>1419</v>
+        <v>1481</v>
       </c>
       <c r="B140" s="5">
         <v>389.0</v>
@@ -31692,7 +32736,7 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>1420</v>
+        <v>1482</v>
       </c>
       <c r="B141" s="5">
         <v>420.0</v>
@@ -31704,7 +32748,7 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>1421</v>
+        <v>1483</v>
       </c>
       <c r="B142" s="5">
         <v>421.0</v>
@@ -31716,7 +32760,7 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>1422</v>
+        <v>1484</v>
       </c>
       <c r="B143" s="5">
         <v>423.0</v>
@@ -31728,7 +32772,7 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>1423</v>
+        <v>1485</v>
       </c>
       <c r="B144" s="5">
         <v>500.0</v>
@@ -31740,7 +32784,7 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>1424</v>
+        <v>1486</v>
       </c>
       <c r="B145" s="5">
         <v>501.0</v>
@@ -31752,7 +32796,7 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>1425</v>
+        <v>1487</v>
       </c>
       <c r="B146" s="5">
         <v>502.0</v>
@@ -31764,7 +32808,7 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>1426</v>
+        <v>1488</v>
       </c>
       <c r="B147" s="5">
         <v>503.0</v>
@@ -31776,7 +32820,7 @@
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>1427</v>
+        <v>1489</v>
       </c>
       <c r="B148" s="5">
         <v>504.0</v>
@@ -31788,7 +32832,7 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>1428</v>
+        <v>1490</v>
       </c>
       <c r="B149" s="5">
         <v>505.0</v>
@@ -31800,7 +32844,7 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>1429</v>
+        <v>1491</v>
       </c>
       <c r="B150" s="5">
         <v>506.0</v>
@@ -31812,7 +32856,7 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>1430</v>
+        <v>1492</v>
       </c>
       <c r="B151" s="5">
         <v>507.0</v>
@@ -31824,7 +32868,7 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>1431</v>
+        <v>1493</v>
       </c>
       <c r="B152" s="5">
         <v>508.0</v>
@@ -31836,7 +32880,7 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>1432</v>
+        <v>1494</v>
       </c>
       <c r="B153" s="5">
         <v>509.0</v>
@@ -31848,7 +32892,7 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>1433</v>
+        <v>1495</v>
       </c>
       <c r="B154" s="5">
         <v>590.0</v>
@@ -31860,7 +32904,7 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>1434</v>
+        <v>1496</v>
       </c>
       <c r="B155" s="5">
         <v>590.0</v>
@@ -31872,7 +32916,7 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>1435</v>
+        <v>1497</v>
       </c>
       <c r="B156" s="5">
         <v>591.0</v>
@@ -31884,7 +32928,7 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>1436</v>
+        <v>1498</v>
       </c>
       <c r="B157" s="5">
         <v>592.0</v>
@@ -31896,7 +32940,7 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>1437</v>
+        <v>1499</v>
       </c>
       <c r="B158" s="5">
         <v>593.0</v>
@@ -31908,7 +32952,7 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>1438</v>
+        <v>1500</v>
       </c>
       <c r="B159" s="5">
         <v>595.0</v>
@@ -31920,7 +32964,7 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>1439</v>
+        <v>1501</v>
       </c>
       <c r="B160" s="5">
         <v>597.0</v>
@@ -31932,7 +32976,7 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>1440</v>
+        <v>1502</v>
       </c>
       <c r="B161" s="5">
         <v>598.0</v>
@@ -31944,7 +32988,7 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>1441</v>
+        <v>1503</v>
       </c>
       <c r="B162" s="5">
         <v>599.0</v>
@@ -31956,7 +33000,7 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
       <c r="B163" s="5">
         <v>599.0</v>
@@ -31968,7 +33012,7 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>1443</v>
+        <v>1505</v>
       </c>
       <c r="B164" s="5">
         <v>670.0</v>
@@ -31980,7 +33024,7 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>1444</v>
+        <v>1506</v>
       </c>
       <c r="B165" s="5">
         <v>672.0</v>
@@ -31992,7 +33036,7 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>1445</v>
+        <v>1507</v>
       </c>
       <c r="B166" s="5">
         <v>673.0</v>
@@ -32004,7 +33048,7 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>1446</v>
+        <v>1508</v>
       </c>
       <c r="B167" s="5">
         <v>674.0</v>
@@ -32016,7 +33060,7 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>1447</v>
+        <v>1509</v>
       </c>
       <c r="B168" s="5">
         <v>675.0</v>
@@ -32028,7 +33072,7 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>1448</v>
+        <v>1510</v>
       </c>
       <c r="B169" s="5">
         <v>676.0</v>
@@ -32040,7 +33084,7 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>1449</v>
+        <v>1511</v>
       </c>
       <c r="B170" s="5">
         <v>677.0</v>
@@ -32052,7 +33096,7 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>1450</v>
+        <v>1512</v>
       </c>
       <c r="B171" s="5">
         <v>678.0</v>
@@ -32064,7 +33108,7 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>1451</v>
+        <v>1513</v>
       </c>
       <c r="B172" s="5">
         <v>679.0</v>
@@ -32076,7 +33120,7 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>1452</v>
+        <v>1514</v>
       </c>
       <c r="B173" s="5">
         <v>680.0</v>
@@ -32088,7 +33132,7 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>1453</v>
+        <v>1515</v>
       </c>
       <c r="B174" s="5">
         <v>681.0</v>
@@ -32100,7 +33144,7 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>1454</v>
+        <v>1516</v>
       </c>
       <c r="B175" s="5">
         <v>682.0</v>
@@ -32112,7 +33156,7 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>1455</v>
+        <v>1517</v>
       </c>
       <c r="B176" s="5">
         <v>683.0</v>
@@ -32124,7 +33168,7 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>1456</v>
+        <v>1518</v>
       </c>
       <c r="B177" s="5">
         <v>685.0</v>
@@ -32136,7 +33180,7 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>1457</v>
+        <v>1519</v>
       </c>
       <c r="B178" s="5">
         <v>686.0</v>
@@ -32148,7 +33192,7 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>1458</v>
+        <v>1520</v>
       </c>
       <c r="B179" s="5">
         <v>687.0</v>
@@ -32160,7 +33204,7 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>1459</v>
+        <v>1521</v>
       </c>
       <c r="B180" s="5">
         <v>688.0</v>
@@ -32172,7 +33216,7 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>1460</v>
+        <v>1522</v>
       </c>
       <c r="B181" s="5">
         <v>689.0</v>
@@ -32184,7 +33228,7 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>1461</v>
+        <v>1523</v>
       </c>
       <c r="B182" s="5">
         <v>690.0</v>
@@ -32196,7 +33240,7 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>1462</v>
+        <v>1524</v>
       </c>
       <c r="B183" s="5">
         <v>691.0</v>
@@ -32208,7 +33252,7 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>1463</v>
+        <v>1525</v>
       </c>
       <c r="B184" s="5">
         <v>692.0</v>
@@ -32220,7 +33264,7 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>1464</v>
+        <v>1526</v>
       </c>
       <c r="B185" s="5">
         <v>850.0</v>
@@ -32232,7 +33276,7 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>1465</v>
+        <v>1527</v>
       </c>
       <c r="B186" s="5">
         <v>852.0</v>
@@ -32244,7 +33288,7 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>1466</v>
+        <v>1528</v>
       </c>
       <c r="B187" s="5">
         <v>853.0</v>
@@ -32256,7 +33300,7 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>1467</v>
+        <v>1529</v>
       </c>
       <c r="B188" s="5">
         <v>855.0</v>
@@ -32268,7 +33312,7 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>1468</v>
+        <v>1530</v>
       </c>
       <c r="B189" s="5">
         <v>856.0</v>
@@ -32280,7 +33324,7 @@
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>1469</v>
+        <v>1531</v>
       </c>
       <c r="B190" s="5">
         <v>880.0</v>
@@ -32292,7 +33336,7 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>1470</v>
+        <v>1532</v>
       </c>
       <c r="B191" s="5">
         <v>886.0</v>
@@ -32304,7 +33348,7 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>1471</v>
+        <v>1533</v>
       </c>
       <c r="B192" s="5">
         <v>960.0</v>
@@ -32316,7 +33360,7 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>1472</v>
+        <v>1534</v>
       </c>
       <c r="B193" s="5">
         <v>961.0</v>
@@ -32328,7 +33372,7 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>1473</v>
+        <v>1535</v>
       </c>
       <c r="B194" s="5">
         <v>962.0</v>
@@ -32340,7 +33384,7 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>1474</v>
+        <v>1536</v>
       </c>
       <c r="B195" s="5">
         <v>963.0</v>
@@ -32352,7 +33396,7 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>1475</v>
+        <v>1537</v>
       </c>
       <c r="B196" s="5">
         <v>964.0</v>
@@ -32364,7 +33408,7 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>1476</v>
+        <v>1538</v>
       </c>
       <c r="B197" s="5">
         <v>965.0</v>
@@ -32376,7 +33420,7 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>1477</v>
+        <v>1539</v>
       </c>
       <c r="B198" s="5">
         <v>966.0</v>
@@ -32388,7 +33432,7 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>1478</v>
+        <v>1540</v>
       </c>
       <c r="B199" s="5">
         <v>967.0</v>
@@ -32400,7 +33444,7 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>1479</v>
+        <v>1541</v>
       </c>
       <c r="B200" s="5">
         <v>968.0</v>
@@ -32412,7 +33456,7 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>1480</v>
+        <v>1542</v>
       </c>
       <c r="B201" s="5">
         <v>970.0</v>
@@ -32424,7 +33468,7 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>1481</v>
+        <v>1543</v>
       </c>
       <c r="B202" s="5">
         <v>971.0</v>
@@ -32436,7 +33480,7 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>1482</v>
+        <v>1544</v>
       </c>
       <c r="B203" s="5">
         <v>972.0</v>
@@ -32448,7 +33492,7 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>1483</v>
+        <v>1545</v>
       </c>
       <c r="B204" s="5">
         <v>973.0</v>
@@ -32460,7 +33504,7 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>1484</v>
+        <v>1546</v>
       </c>
       <c r="B205" s="5">
         <v>974.0</v>
@@ -32472,7 +33516,7 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>1485</v>
+        <v>1547</v>
       </c>
       <c r="B206" s="5">
         <v>975.0</v>
@@ -32484,7 +33528,7 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>1486</v>
+        <v>1548</v>
       </c>
       <c r="B207" s="5">
         <v>976.0</v>
@@ -32496,7 +33540,7 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>1487</v>
+        <v>1549</v>
       </c>
       <c r="B208" s="5">
         <v>977.0</v>
@@ -32508,7 +33552,7 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>1488</v>
+        <v>1550</v>
       </c>
       <c r="B209" s="5">
         <v>992.0</v>
@@ -32520,7 +33564,7 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>1489</v>
+        <v>1551</v>
       </c>
       <c r="B210" s="5">
         <v>993.0</v>
@@ -32532,7 +33576,7 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>1490</v>
+        <v>1552</v>
       </c>
       <c r="B211" s="5">
         <v>994.0</v>
@@ -32544,7 +33588,7 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>1491</v>
+        <v>1553</v>
       </c>
       <c r="B212" s="5">
         <v>995.0</v>
@@ -32556,7 +33600,7 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
-        <v>1492</v>
+        <v>1554</v>
       </c>
       <c r="B213" s="5">
         <v>996.0</v>
@@ -32568,7 +33612,7 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
-        <v>1493</v>
+        <v>1555</v>
       </c>
       <c r="B214" s="5">
         <v>998.0</v>
@@ -32580,10 +33624,10 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>1494</v>
+        <v>1556</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1495</v>
+        <v>1557</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="6"/>
@@ -32592,10 +33636,10 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>1496</v>
+        <v>1558</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1497</v>
+        <v>1559</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="6"/>
@@ -32604,10 +33648,10 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>1498</v>
+        <v>1560</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1499</v>
+        <v>1561</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="6"/>
@@ -32616,10 +33660,10 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>1500</v>
+        <v>1562</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1501</v>
+        <v>1563</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="6"/>
@@ -32628,10 +33672,10 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>1502</v>
+        <v>1564</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1503</v>
+        <v>1565</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="6"/>
@@ -32640,10 +33684,10 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>1504</v>
+        <v>1566</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1505</v>
+        <v>1567</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="6"/>
@@ -32652,10 +33696,10 @@
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>1506</v>
+        <v>1568</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>1507</v>
+        <v>1569</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="6"/>
@@ -32664,10 +33708,10 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>1508</v>
+        <v>1570</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>1509</v>
+        <v>1571</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="6"/>
@@ -32676,10 +33720,10 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>1510</v>
+        <v>1572</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1511</v>
+        <v>1573</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="6"/>
@@ -32688,10 +33732,10 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>1512</v>
+        <v>1574</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1513</v>
+        <v>1575</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="6"/>
@@ -32700,10 +33744,10 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>1514</v>
+        <v>1576</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1515</v>
+        <v>1577</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="6"/>
@@ -32712,10 +33756,10 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
-        <v>1516</v>
+        <v>1578</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1517</v>
+        <v>1579</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="6"/>
@@ -32724,10 +33768,10 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
-        <v>1518</v>
+        <v>1580</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1519</v>
+        <v>1581</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="6"/>
@@ -32736,10 +33780,10 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>1520</v>
+        <v>1582</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1521</v>
+        <v>1583</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="6"/>
@@ -32748,10 +33792,10 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>1522</v>
+        <v>1584</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1523</v>
+        <v>1585</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="6"/>
@@ -32760,10 +33804,10 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>1524</v>
+        <v>1586</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1525</v>
+        <v>1587</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="6"/>
@@ -32772,10 +33816,10 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>1526</v>
+        <v>1588</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1527</v>
+        <v>1589</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="6"/>
@@ -32784,10 +33828,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>1528</v>
+        <v>1590</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1529</v>
+        <v>1591</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="6"/>
@@ -32796,10 +33840,10 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>1530</v>
+        <v>1592</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1531</v>
+        <v>1593</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="6"/>
@@ -32808,10 +33852,10 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>1532</v>
+        <v>1594</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1533</v>
+        <v>1595</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="6"/>
@@ -32820,10 +33864,10 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>1534</v>
+        <v>1596</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1535</v>
+        <v>1597</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="6"/>
@@ -32832,10 +33876,10 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>1536</v>
+        <v>1598</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1537</v>
+        <v>1599</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="6"/>
@@ -32844,10 +33888,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>1538</v>
+        <v>1600</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1539</v>
+        <v>1601</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="6"/>
@@ -32856,10 +33900,10 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>1540</v>
+        <v>1602</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1541</v>
+        <v>1603</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="6"/>
@@ -32868,10 +33912,10 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>1542</v>
+        <v>1604</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1543</v>
+        <v>1605</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="6"/>
@@ -32880,10 +33924,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>1544</v>
+        <v>1606</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1545</v>
+        <v>1607</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="6"/>
